--- a/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10A7550-40F4-499D-87C1-2564B48C3CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926C7138-3CDA-4369-A1C4-79ED6F31B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -3031,8 +3031,8 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:A60"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="A39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4409,8 +4409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE0BB4B-A87E-47DE-8321-0EFAC4350DE2}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5584,7 +5584,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6130,8 +6130,8 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63:B64"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="B58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7242,8 +7242,8 @@
   <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124:K124"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="H26:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -17090,14 +17090,14 @@
   <dimension ref="A1:AI93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="6" customWidth="1"/>
     <col min="5" max="35" width="6.42578125" style="7" customWidth="1"/>
@@ -27067,7 +27067,7 @@
   <dimension ref="A1:AI122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
@@ -40146,7 +40146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
   <dimension ref="A1:AI122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
@@ -53350,7 +53350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465044A0-2557-4FC4-8230-2D5F5E941F36}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56626B0B-9217-48F0-97E6-19CA5BB5B3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976841AB-2A60-4ABC-A3E1-A94C7DA290E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2250,7 +2250,7 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2295,6 +2295,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2303,14 +2306,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="345">
@@ -3712,7 +3707,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4164,18 +4159,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -16396,8 +16391,8 @@
   <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD27"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -18978,645 +18973,645 @@
         <v>1016.43</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="23" customFormat="1">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:35">
+      <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="7">
         <v>1462</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="7">
         <v>1385.8</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="7">
         <v>1309.5999999999999</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="7">
         <v>1233.4000000000001</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="7">
         <v>1157.2</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="7">
         <v>1081</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="7">
         <v>1006.0504942301696</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="7">
         <v>930.91208360548842</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="7">
         <v>855.58458322513115</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="7">
         <v>780.06780739069416</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="7">
         <v>704.36156960948165</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="7">
         <v>695.55704998936312</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="7">
         <v>686.75253036924448</v>
       </c>
-      <c r="R25" s="25">
+      <c r="R25" s="7">
         <v>677.94801074912607</v>
       </c>
-      <c r="S25" s="25">
+      <c r="S25" s="7">
         <v>669.14349112900754</v>
       </c>
-      <c r="T25" s="25">
+      <c r="T25" s="7">
         <v>660.3389715088889</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25" s="7">
         <v>651.53445188877049</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25" s="7">
         <v>642.72993226865196</v>
       </c>
-      <c r="W25" s="25">
+      <c r="W25" s="7">
         <v>633.92541264853344</v>
       </c>
-      <c r="X25" s="25">
+      <c r="X25" s="7">
         <v>625.12089302841491</v>
       </c>
-      <c r="Y25" s="25">
+      <c r="Y25" s="7">
         <v>616.31637340829639</v>
       </c>
-      <c r="Z25" s="25">
+      <c r="Z25" s="7">
         <v>607.51185378817797</v>
       </c>
-      <c r="AA25" s="25">
+      <c r="AA25" s="7">
         <v>598.70733416805933</v>
       </c>
-      <c r="AB25" s="25">
+      <c r="AB25" s="7">
         <v>589.90281454794081</v>
       </c>
-      <c r="AC25" s="25">
+      <c r="AC25" s="7">
         <v>581.09829492782239</v>
       </c>
-      <c r="AD25" s="25">
+      <c r="AD25" s="7">
         <v>572.29377530770375</v>
       </c>
-      <c r="AE25" s="25">
+      <c r="AE25" s="7">
         <v>563.48925568758523</v>
       </c>
-      <c r="AF25" s="25">
+      <c r="AF25" s="7">
         <v>554.68473606746682</v>
       </c>
-      <c r="AG25" s="25">
+      <c r="AG25" s="7">
         <v>545.88021644734829</v>
       </c>
-      <c r="AH25" s="25">
+      <c r="AH25" s="7">
         <v>537.07569682722965</v>
       </c>
-      <c r="AI25" s="25">
+      <c r="AI25" s="7">
         <v>528.27117720711124</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="23" customFormat="1">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:35">
+      <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="7">
         <v>1462</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="7">
         <v>1410.8</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="7">
         <v>1359.6</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="7">
         <v>1308.4000000000001</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="7">
         <v>1257.2</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="7">
         <v>1206</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="7">
         <v>1156.2371723099122</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="7">
         <v>1106.347809031894</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="7">
         <v>1056.3317871728393</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="7">
         <v>1006.1889831996432</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="7">
         <v>955.91927304143928</v>
       </c>
-      <c r="P26" s="25">
+      <c r="P26" s="7">
         <v>946.36008031102494</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="7">
         <v>936.80088758061049</v>
       </c>
-      <c r="R26" s="25">
+      <c r="R26" s="7">
         <v>927.24169485019615</v>
       </c>
-      <c r="S26" s="25">
+      <c r="S26" s="7">
         <v>917.6825021197817</v>
       </c>
-      <c r="T26" s="25">
+      <c r="T26" s="7">
         <v>908.12330938936736</v>
       </c>
-      <c r="U26" s="25">
+      <c r="U26" s="7">
         <v>898.56411665895303</v>
       </c>
-      <c r="V26" s="25">
+      <c r="V26" s="7">
         <v>889.00492392853857</v>
       </c>
-      <c r="W26" s="25">
+      <c r="W26" s="7">
         <v>879.44573119812424</v>
       </c>
-      <c r="X26" s="25">
+      <c r="X26" s="7">
         <v>869.88653846770978</v>
       </c>
-      <c r="Y26" s="25">
+      <c r="Y26" s="7">
         <v>860.32734573729533</v>
       </c>
-      <c r="Z26" s="25">
+      <c r="Z26" s="7">
         <v>850.76815300688099</v>
       </c>
-      <c r="AA26" s="25">
+      <c r="AA26" s="7">
         <v>841.20896027646654</v>
       </c>
-      <c r="AB26" s="25">
+      <c r="AB26" s="7">
         <v>831.6497675460522</v>
       </c>
-      <c r="AC26" s="25">
+      <c r="AC26" s="7">
         <v>822.09057481563775</v>
       </c>
-      <c r="AD26" s="25">
+      <c r="AD26" s="7">
         <v>812.53138208522341</v>
       </c>
-      <c r="AE26" s="25">
+      <c r="AE26" s="7">
         <v>802.97218935480907</v>
       </c>
-      <c r="AF26" s="25">
+      <c r="AF26" s="7">
         <v>793.41299662439462</v>
       </c>
-      <c r="AG26" s="25">
+      <c r="AG26" s="7">
         <v>783.85380389398028</v>
       </c>
-      <c r="AH26" s="25">
+      <c r="AH26" s="7">
         <v>774.29461116356583</v>
       </c>
-      <c r="AI26" s="25">
+      <c r="AI26" s="7">
         <v>764.73541843315149</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="23" customFormat="1">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:35">
+      <c r="A27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="7">
         <v>1462</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="7">
         <v>1415.8</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="7">
         <v>1369.6</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="7">
         <v>1323.4</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="7">
         <v>1277.2</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="7">
         <v>1231</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="7">
         <v>1186.2745079258607</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="7">
         <v>1141.434954117175</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="7">
         <v>1096.4812279623807</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="7">
         <v>1051.4132183614331</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="7">
         <v>1006.2308137278309</v>
       </c>
-      <c r="P27" s="25">
+      <c r="P27" s="7">
         <v>1001.1996596591918</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27" s="7">
         <v>996.16850559055251</v>
       </c>
-      <c r="R27" s="25">
+      <c r="R27" s="7">
         <v>991.13735152191339</v>
       </c>
-      <c r="S27" s="25">
+      <c r="S27" s="7">
         <v>986.10619745327426</v>
       </c>
-      <c r="T27" s="25">
+      <c r="T27" s="7">
         <v>981.07504338463514</v>
       </c>
-      <c r="U27" s="25">
+      <c r="U27" s="7">
         <v>976.0438893159959</v>
       </c>
-      <c r="V27" s="25">
+      <c r="V27" s="7">
         <v>971.01273524735677</v>
       </c>
-      <c r="W27" s="25">
+      <c r="W27" s="7">
         <v>965.98158117871765</v>
       </c>
-      <c r="X27" s="25">
+      <c r="X27" s="7">
         <v>960.95042711007852</v>
       </c>
-      <c r="Y27" s="25">
+      <c r="Y27" s="7">
         <v>955.91927304143928</v>
       </c>
-      <c r="Z27" s="25">
+      <c r="Z27" s="7">
         <v>950.88811897280016</v>
       </c>
-      <c r="AA27" s="25">
+      <c r="AA27" s="7">
         <v>945.85696490416103</v>
       </c>
-      <c r="AB27" s="25">
+      <c r="AB27" s="7">
         <v>940.82581083552191</v>
       </c>
-      <c r="AC27" s="25">
+      <c r="AC27" s="7">
         <v>935.79465676688267</v>
       </c>
-      <c r="AD27" s="25">
+      <c r="AD27" s="7">
         <v>930.76350269824354</v>
       </c>
-      <c r="AE27" s="25">
+      <c r="AE27" s="7">
         <v>925.73234862960442</v>
       </c>
-      <c r="AF27" s="25">
+      <c r="AF27" s="7">
         <v>920.70119456096529</v>
       </c>
-      <c r="AG27" s="25">
+      <c r="AG27" s="7">
         <v>915.67004049232605</v>
       </c>
-      <c r="AH27" s="25">
+      <c r="AH27" s="7">
         <v>910.63888642368693</v>
       </c>
-      <c r="AI27" s="25">
+      <c r="AI27" s="7">
         <v>905.6077323550478</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="23" customFormat="1">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:35">
+      <c r="A28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="7">
         <v>3739.2347124720723</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="7">
         <v>3315.88765604317</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="7">
         <v>3136.8736350111699</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="7">
         <v>3009.8611657787387</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="7">
         <v>2911.3426407828447</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="7">
         <v>2830.8471447467391</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="7">
         <v>2768.2973175096104</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="7">
         <v>2714.6236634971942</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="7">
         <v>2667.7167962115086</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="7">
         <v>2626.1378766224857</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="7">
         <v>2588.86165761041</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="7">
         <v>2550.0618315491083</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="7">
         <v>2514.3694515103593</v>
       </c>
-      <c r="R28" s="25">
+      <c r="R28" s="7">
         <v>2481.3234691480425</v>
       </c>
-      <c r="S28" s="25">
+      <c r="S28" s="7">
         <v>2450.5583955935526</v>
       </c>
-      <c r="T28" s="25">
+      <c r="T28" s="7">
         <v>2421.7795912460497</v>
       </c>
-      <c r="U28" s="25">
+      <c r="U28" s="7">
         <v>2394.7460599666833</v>
       </c>
-      <c r="V28" s="25">
+      <c r="V28" s="7">
         <v>2369.2581687085758</v>
       </c>
-      <c r="W28" s="25">
+      <c r="W28" s="7">
         <v>2345.1486918391938</v>
       </c>
-      <c r="X28" s="25">
+      <c r="X28" s="7">
         <v>2322.2761552904931</v>
       </c>
-      <c r="Y28" s="25">
+      <c r="Y28" s="7">
         <v>2300.519806307509</v>
       </c>
-      <c r="Z28" s="25">
+      <c r="Z28" s="7">
         <v>2279.7757544668175</v>
       </c>
-      <c r="AA28" s="25">
+      <c r="AA28" s="7">
         <v>2259.9539712065416</v>
       </c>
-      <c r="AB28" s="25">
+      <c r="AB28" s="7">
         <v>2240.9759284055162</v>
       </c>
-      <c r="AC28" s="25">
+      <c r="AC28" s="7">
         <v>2222.772719334936</v>
       </c>
-      <c r="AD28" s="25">
+      <c r="AD28" s="7">
         <v>2205.2835483667668</v>
       </c>
-      <c r="AE28" s="25">
+      <c r="AE28" s="7">
         <v>2188.4545058680428</v>
       </c>
-      <c r="AF28" s="25">
+      <c r="AF28" s="7">
         <v>2172.2375660044499</v>
       </c>
-      <c r="AG28" s="25">
+      <c r="AG28" s="7">
         <v>2156.5897604870056</v>
       </c>
-      <c r="AH28" s="25">
+      <c r="AH28" s="7">
         <v>2141.4724924499601</v>
       </c>
-      <c r="AI28" s="25">
+      <c r="AI28" s="7">
         <v>2126.8509628738384</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="23" customFormat="1">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:35">
+      <c r="A29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="7">
         <v>3925.3532623035676</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="7">
         <v>3575.1263132331042</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="7">
         <v>3406.575541670803</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="7">
         <v>3286.9868660813504</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="7">
         <v>3194.2266827978892</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="7">
         <v>3118.4360945190497</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="7">
         <v>3060.4455040852308</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="7">
         <v>3010.8135827850806</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="7">
         <v>2967.5542373216308</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="7">
         <v>2929.3127288144492</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="7">
         <v>2895.123736122091</v>
       </c>
-      <c r="P29" s="25">
+      <c r="P29" s="7">
         <v>2858.5917338721315</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="Q29" s="7">
         <v>2824.9855495087804</v>
       </c>
-      <c r="R29" s="25">
+      <c r="R29" s="7">
         <v>2793.8710826525389</v>
       </c>
-      <c r="S29" s="25">
+      <c r="S29" s="7">
         <v>2764.9042070140476</v>
       </c>
-      <c r="T29" s="25">
+      <c r="T29" s="7">
         <v>2737.8075044795287</v>
       </c>
-      <c r="U29" s="25">
+      <c r="U29" s="7">
         <v>2712.3540649728202</v>
       </c>
-      <c r="V29" s="25">
+      <c r="V29" s="7">
         <v>2688.355923864744</v>
       </c>
-      <c r="W29" s="25">
+      <c r="W29" s="7">
         <v>2665.6556297488355</v>
       </c>
-      <c r="X29" s="25">
+      <c r="X29" s="7">
         <v>2644.1199776214457</v>
       </c>
-      <c r="Y29" s="25">
+      <c r="Y29" s="7">
         <v>2623.6352726451514</v>
       </c>
-      <c r="Z29" s="25">
+      <c r="Z29" s="7">
         <v>2604.1036967221016</v>
       </c>
-      <c r="AA29" s="25">
+      <c r="AA29" s="7">
         <v>2585.4404833994813</v>
       </c>
-      <c r="AB29" s="25">
+      <c r="AB29" s="7">
         <v>2567.5716944721421</v>
       </c>
-      <c r="AC29" s="25">
+      <c r="AC29" s="7">
         <v>2550.4324507633614</v>
       </c>
-      <c r="AD29" s="25">
+      <c r="AD29" s="7">
         <v>2533.965510108791</v>
       </c>
-      <c r="AE29" s="25">
+      <c r="AE29" s="7">
         <v>2518.120113857357</v>
       </c>
-      <c r="AF29" s="25">
+      <c r="AF29" s="7">
         <v>2502.85104325255</v>
       </c>
-      <c r="AG29" s="25">
+      <c r="AG29" s="7">
         <v>2488.1178414730612</v>
       </c>
-      <c r="AH29" s="25">
+      <c r="AH29" s="7">
         <v>2473.8841676140582</v>
       </c>
-      <c r="AI29" s="25">
+      <c r="AI29" s="7">
         <v>2460.1172566354162</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="23" customFormat="1">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:35">
+      <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="7">
         <v>4267.0902035237923</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="7">
         <v>4074.6912797133014</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="7">
         <v>3946.1370936294597</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="7">
         <v>3854.9264470524777</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="7">
         <v>3784.177973150739</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="7">
         <v>3726.3722609686374</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="7">
         <v>3684.8300188578714</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="7">
         <v>3649.6668337117162</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="7">
         <v>3619.3679090328724</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="7">
         <v>3592.8999842529151</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="7">
         <v>3569.5268088925509</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="7">
         <v>3541.6637396717692</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="7">
         <v>3516.0322006513902</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="7">
         <v>3492.3011021517409</v>
       </c>
-      <c r="S30" s="25">
+      <c r="S30" s="7">
         <v>3470.2079780053368</v>
       </c>
-      <c r="T30" s="25">
+      <c r="T30" s="7">
         <v>3449.5412405730885</v>
       </c>
-      <c r="U30" s="25">
+      <c r="U30" s="7">
         <v>3430.1278248498047</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="7">
         <v>3411.824369641155</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="7">
         <v>3394.5107862805717</v>
       </c>
-      <c r="X30" s="25">
+      <c r="X30" s="7">
         <v>3378.0854789066566</v>
       </c>
-      <c r="Y30" s="25">
+      <c r="Y30" s="7">
         <v>3362.4617321211272</v>
       </c>
-      <c r="Z30" s="25">
+      <c r="Z30" s="7">
         <v>3347.5649397632565</v>
       </c>
-      <c r="AA30" s="25">
+      <c r="AA30" s="7">
         <v>3333.330450201684</v>
       </c>
-      <c r="AB30" s="25">
+      <c r="AB30" s="7">
         <v>3319.7018705424744</v>
       </c>
-      <c r="AC30" s="25">
+      <c r="AC30" s="7">
         <v>3306.6297172402242</v>
       </c>
-      <c r="AD30" s="25">
+      <c r="AD30" s="7">
         <v>3294.0703315220953</v>
       </c>
-      <c r="AE30" s="25">
+      <c r="AE30" s="7">
         <v>3281.9849996105404</v>
       </c>
-      <c r="AF30" s="25">
+      <c r="AF30" s="7">
         <v>3270.3392330224469</v>
       </c>
-      <c r="AG30" s="25">
+      <c r="AG30" s="7">
         <v>3259.10217521716</v>
       </c>
-      <c r="AH30" s="25">
+      <c r="AH30" s="7">
         <v>3248.2461088760419</v>
       </c>
-      <c r="AI30" s="25">
+      <c r="AI30" s="7">
         <v>3237.7460440033415</v>
       </c>
     </row>
@@ -21879,8 +21874,8 @@
   <dimension ref="A1:AI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67:L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -24461,645 +24456,645 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="23" customFormat="1">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:35">
+      <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="7">
         <v>43</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="7">
         <v>42.137999999999998</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="7">
         <v>41.275999999999996</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="7">
         <v>40.414000000000001</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="7">
         <v>39.552</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="7">
         <v>38.69</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="7">
         <v>37.828000000000003</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="7">
         <v>36.966000000000001</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="7">
         <v>36.103999999999999</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="7">
         <v>35.242000000000004</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="7">
         <v>34.380000000000003</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="7">
         <v>33.8643</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="7">
         <v>33.348599999999998</v>
       </c>
-      <c r="R25" s="25">
+      <c r="R25" s="7">
         <v>32.832900000000002</v>
       </c>
-      <c r="S25" s="25">
+      <c r="S25" s="7">
         <v>32.3172</v>
       </c>
-      <c r="T25" s="25">
+      <c r="T25" s="7">
         <v>31.801500000000004</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25" s="7">
         <v>31.285800000000002</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25" s="7">
         <v>30.770100000000003</v>
       </c>
-      <c r="W25" s="25">
+      <c r="W25" s="7">
         <v>30.254400000000004</v>
       </c>
-      <c r="X25" s="25">
+      <c r="X25" s="7">
         <v>29.738700000000001</v>
       </c>
-      <c r="Y25" s="25">
+      <c r="Y25" s="7">
         <v>29.223000000000003</v>
       </c>
-      <c r="Z25" s="25">
+      <c r="Z25" s="7">
         <v>28.707299999999996</v>
       </c>
-      <c r="AA25" s="25">
+      <c r="AA25" s="7">
         <v>28.191600000000001</v>
       </c>
-      <c r="AB25" s="25">
+      <c r="AB25" s="7">
         <v>27.675900000000002</v>
       </c>
-      <c r="AC25" s="25">
+      <c r="AC25" s="7">
         <v>27.160199999999996</v>
       </c>
-      <c r="AD25" s="25">
+      <c r="AD25" s="7">
         <v>26.644500000000001</v>
       </c>
-      <c r="AE25" s="25">
+      <c r="AE25" s="7">
         <v>26.128800000000002</v>
       </c>
-      <c r="AF25" s="25">
+      <c r="AF25" s="7">
         <v>25.613099999999996</v>
       </c>
-      <c r="AG25" s="25">
+      <c r="AG25" s="7">
         <v>25.0974</v>
       </c>
-      <c r="AH25" s="25">
+      <c r="AH25" s="7">
         <v>24.581699999999998</v>
       </c>
-      <c r="AI25" s="25">
+      <c r="AI25" s="7">
         <v>24.065999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="23" customFormat="1">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:35">
+      <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="7">
         <v>43</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="7">
         <v>42.594999999999999</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="7">
         <v>42.19</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="7">
         <v>41.785000000000004</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="7">
         <v>41.38</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="7">
         <v>40.975000000000001</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="7">
         <v>40.570000000000007</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="7">
         <v>40.165000000000006</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="7">
         <v>39.760000000000005</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="7">
         <v>39.355000000000004</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="7">
         <v>38.950000000000003</v>
       </c>
-      <c r="P26" s="25">
+      <c r="P26" s="7">
         <v>38.657875000000004</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="7">
         <v>38.365750000000006</v>
       </c>
-      <c r="R26" s="25">
+      <c r="R26" s="7">
         <v>38.073625000000007</v>
       </c>
-      <c r="S26" s="25">
+      <c r="S26" s="7">
         <v>37.781500000000008</v>
       </c>
-      <c r="T26" s="25">
+      <c r="T26" s="7">
         <v>37.489375000000003</v>
       </c>
-      <c r="U26" s="25">
+      <c r="U26" s="7">
         <v>37.197250000000004</v>
       </c>
-      <c r="V26" s="25">
+      <c r="V26" s="7">
         <v>36.905124999999998</v>
       </c>
-      <c r="W26" s="25">
+      <c r="W26" s="7">
         <v>36.613</v>
       </c>
-      <c r="X26" s="25">
+      <c r="X26" s="7">
         <v>36.320875000000001</v>
       </c>
-      <c r="Y26" s="25">
+      <c r="Y26" s="7">
         <v>36.028750000000002</v>
       </c>
-      <c r="Z26" s="25">
+      <c r="Z26" s="7">
         <v>35.736625000000004</v>
       </c>
-      <c r="AA26" s="25">
+      <c r="AA26" s="7">
         <v>35.444500000000005</v>
       </c>
-      <c r="AB26" s="25">
+      <c r="AB26" s="7">
         <v>35.152375000000006</v>
       </c>
-      <c r="AC26" s="25">
+      <c r="AC26" s="7">
         <v>34.860250000000001</v>
       </c>
-      <c r="AD26" s="25">
+      <c r="AD26" s="7">
         <v>34.568124999999995</v>
       </c>
-      <c r="AE26" s="25">
+      <c r="AE26" s="7">
         <v>34.275999999999996</v>
       </c>
-      <c r="AF26" s="25">
+      <c r="AF26" s="7">
         <v>33.983874999999998</v>
       </c>
-      <c r="AG26" s="25">
+      <c r="AG26" s="7">
         <v>33.691749999999999</v>
       </c>
-      <c r="AH26" s="25">
+      <c r="AH26" s="7">
         <v>33.399625</v>
       </c>
-      <c r="AI26" s="25">
+      <c r="AI26" s="7">
         <v>33.107500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="23" customFormat="1">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:35">
+      <c r="A27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="7">
         <v>43</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="7">
         <v>43</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="7">
         <v>43</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="7">
         <v>43</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="7">
         <v>43</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="7">
         <v>43</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="7">
         <v>43</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="7">
         <v>43</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="7">
         <v>43</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="7">
         <v>43</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="7">
         <v>43</v>
       </c>
-      <c r="P27" s="25">
+      <c r="P27" s="7">
         <v>42.902474999999995</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27" s="7">
         <v>42.804950000000005</v>
       </c>
-      <c r="R27" s="25">
+      <c r="R27" s="7">
         <v>42.707425000000001</v>
       </c>
-      <c r="S27" s="25">
+      <c r="S27" s="7">
         <v>42.609899999999996</v>
       </c>
-      <c r="T27" s="25">
+      <c r="T27" s="7">
         <v>42.512374999999999</v>
       </c>
-      <c r="U27" s="25">
+      <c r="U27" s="7">
         <v>42.414850000000001</v>
       </c>
-      <c r="V27" s="25">
+      <c r="V27" s="7">
         <v>42.317324999999997</v>
       </c>
-      <c r="W27" s="25">
+      <c r="W27" s="7">
         <v>42.219799999999999</v>
       </c>
-      <c r="X27" s="25">
+      <c r="X27" s="7">
         <v>42.122275000000002</v>
       </c>
-      <c r="Y27" s="25">
+      <c r="Y27" s="7">
         <v>42.024749999999997</v>
       </c>
-      <c r="Z27" s="25">
+      <c r="Z27" s="7">
         <v>41.927225</v>
       </c>
-      <c r="AA27" s="25">
+      <c r="AA27" s="7">
         <v>41.829700000000003</v>
       </c>
-      <c r="AB27" s="25">
+      <c r="AB27" s="7">
         <v>41.732174999999998</v>
       </c>
-      <c r="AC27" s="25">
+      <c r="AC27" s="7">
         <v>41.634650000000001</v>
       </c>
-      <c r="AD27" s="25">
+      <c r="AD27" s="7">
         <v>41.537125000000003</v>
       </c>
-      <c r="AE27" s="25">
+      <c r="AE27" s="7">
         <v>41.439599999999999</v>
       </c>
-      <c r="AF27" s="25">
+      <c r="AF27" s="7">
         <v>41.342075000000001</v>
       </c>
-      <c r="AG27" s="25">
+      <c r="AG27" s="7">
         <v>41.244550000000004</v>
       </c>
-      <c r="AH27" s="25">
+      <c r="AH27" s="7">
         <v>41.147024999999999</v>
       </c>
-      <c r="AI27" s="25">
+      <c r="AI27" s="7">
         <v>41.049500000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="23" customFormat="1">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:35">
+      <c r="A28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="7">
         <v>108.7964634577251</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="7">
         <v>103.10895678143099</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="7">
         <v>98.697383870212263</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="7">
         <v>95.092866346195351</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="7">
         <v>92.045290203543104</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="7">
         <v>89.405359669901245</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="7">
         <v>87.076775910959711</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="7">
         <v>84.993786758682532</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="7">
         <v>83.109493867797752</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="7">
         <v>81.389269234665605</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="7">
         <v>79.806815971582282</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="7">
         <v>78.341693092013358</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="7">
         <v>76.977696323446878</v>
       </c>
-      <c r="R28" s="25">
+      <c r="R28" s="7">
         <v>75.701762558371527</v>
       </c>
-      <c r="S28" s="25">
+      <c r="S28" s="7">
         <v>74.503207019647192</v>
       </c>
-      <c r="T28" s="25">
+      <c r="T28" s="7">
         <v>73.373178799429965</v>
       </c>
-      <c r="U28" s="25">
+      <c r="U28" s="7">
         <v>72.304263801277244</v>
       </c>
-      <c r="V28" s="25">
+      <c r="V28" s="7">
         <v>71.290189647152786</v>
       </c>
-      <c r="W28" s="25">
+      <c r="W28" s="7">
         <v>70.325602656777704</v>
       </c>
-      <c r="X28" s="25">
+      <c r="X28" s="7">
         <v>69.405896756268007</v>
       </c>
-      <c r="Y28" s="25">
+      <c r="Y28" s="7">
         <v>68.527080449641772</v>
       </c>
-      <c r="Z28" s="25">
+      <c r="Z28" s="7">
         <v>67.685672123135859</v>
       </c>
-      <c r="AA28" s="25">
+      <c r="AA28" s="7">
         <v>66.87861673593406</v>
       </c>
-      <c r="AB28" s="25">
+      <c r="AB28" s="7">
         <v>66.103218860052536</v>
       </c>
-      <c r="AC28" s="25">
+      <c r="AC28" s="7">
         <v>65.357088364194311</v>
       </c>
-      <c r="AD28" s="25">
+      <c r="AD28" s="7">
         <v>64.638095980483612</v>
       </c>
-      <c r="AE28" s="25">
+      <c r="AE28" s="7">
         <v>63.944336671793906</v>
       </c>
-      <c r="AF28" s="25">
+      <c r="AF28" s="7">
         <v>63.274099211917132</v>
       </c>
-      <c r="AG28" s="25">
+      <c r="AG28" s="7">
         <v>62.625840755521587</v>
       </c>
-      <c r="AH28" s="25">
+      <c r="AH28" s="7">
         <v>61.998165446841774</v>
       </c>
-      <c r="AI28" s="25">
+      <c r="AI28" s="7">
         <v>61.389806321032367</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="23" customFormat="1">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:35">
+      <c r="A29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="7">
         <v>114.00570395546551</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="7">
         <v>108.95292406904292</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="7">
         <v>105.03368350512378</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="7">
         <v>101.83143079893834</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="7">
         <v>99.123964713646942</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="7">
         <v>96.778650912515758</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="7">
         <v>94.709937528833763</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="7">
         <v>92.859410348596597</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29" s="7">
         <v>91.185404890479859</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="7">
         <v>89.657157642411178</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="7">
         <v>88.251306454185183</v>
       </c>
-      <c r="P29" s="25">
+      <c r="P29" s="7">
         <v>86.949691557119763</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="Q29" s="7">
         <v>85.737917078492018</v>
       </c>
-      <c r="R29" s="25">
+      <c r="R29" s="7">
         <v>84.60437775598858</v>
       </c>
-      <c r="S29" s="25">
+      <c r="S29" s="7">
         <v>83.539581235560973</v>
       </c>
-      <c r="T29" s="25">
+      <c r="T29" s="7">
         <v>82.535664372306599</v>
       </c>
-      <c r="U29" s="25">
+      <c r="U29" s="7">
         <v>81.586040484307802</v>
       </c>
-      <c r="V29" s="25">
+      <c r="V29" s="7">
         <v>80.685137192069433</v>
       </c>
-      <c r="W29" s="25">
+      <c r="W29" s="7">
         <v>79.828198287015184</v>
       </c>
-      <c r="X29" s="25">
+      <c r="X29" s="7">
         <v>79.011131733952681</v>
       </c>
-      <c r="Y29" s="25">
+      <c r="Y29" s="7">
         <v>78.230391488584829</v>
       </c>
-      <c r="Z29" s="25">
+      <c r="Z29" s="7">
         <v>77.482884485884</v>
       </c>
-      <c r="AA29" s="25">
+      <c r="AA29" s="7">
         <v>76.765896628150273</v>
       </c>
-      <c r="AB29" s="25">
+      <c r="AB29" s="7">
         <v>76.077033297658019</v>
       </c>
-      <c r="AC29" s="25">
+      <c r="AC29" s="7">
         <v>75.414171102202019</v>
       </c>
-      <c r="AD29" s="25">
+      <c r="AD29" s="7">
         <v>74.775418400592585</v>
       </c>
-      <c r="AE29" s="25">
+      <c r="AE29" s="7">
         <v>74.159082758196504</v>
       </c>
-      <c r="AF29" s="25">
+      <c r="AF29" s="7">
         <v>73.563643921964854</v>
       </c>
-      <c r="AG29" s="25">
+      <c r="AG29" s="7">
         <v>72.987731228388384</v>
       </c>
-      <c r="AH29" s="25">
+      <c r="AH29" s="7">
         <v>72.430104599461416</v>
       </c>
-      <c r="AI29" s="25">
+      <c r="AI29" s="7">
         <v>71.889638463848115</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="23" customFormat="1">
-      <c r="A30" s="23" t="s">
+    <row r="30" spans="1:35">
+      <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="7">
         <v>123.38334161805193</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="7">
         <v>120.00580544984575</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="7">
         <v>117.38598486512008</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="7">
         <v>115.24543558769349</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="7">
         <v>113.4356269609936</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="7">
         <v>111.86789941948732</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="7">
         <v>110.48506572554125</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="7">
         <v>109.24807883476164</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="7">
         <v>108.12908807964152</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="7">
         <v>107.10752955733507</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="7">
         <v>106.16778681332435</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="7">
         <v>105.29772093063517</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="7">
         <v>104.48770897260941</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="7">
         <v>103.72999338912888</v>
       </c>
-      <c r="S30" s="25">
+      <c r="S30" s="7">
         <v>103.01822900588546</v>
       </c>
-      <c r="T30" s="25">
+      <c r="T30" s="7">
         <v>102.34715969518282</v>
       </c>
-      <c r="U30" s="25">
+      <c r="U30" s="7">
         <v>101.71238258238456</v>
       </c>
-      <c r="V30" s="25">
+      <c r="V30" s="7">
         <v>101.11017280440321</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="7">
         <v>100.53735106848292</v>
       </c>
-      <c r="X30" s="25">
+      <c r="X30" s="7">
         <v>99.991182049283069</v>
       </c>
-      <c r="Y30" s="25">
+      <c r="Y30" s="7">
         <v>99.469295389666257</v>
       </c>
-      <c r="Z30" s="25">
+      <c r="Z30" s="7">
         <v>98.969623526976619</v>
       </c>
-      <c r="AA30" s="25">
+      <c r="AA30" s="7">
         <v>98.490352219677547</v>
       </c>
-      <c r="AB30" s="25">
+      <c r="AB30" s="7">
         <v>98.029880782965918</v>
       </c>
-      <c r="AC30" s="25">
+      <c r="AC30" s="7">
         <v>97.586789833030565</v>
       </c>
-      <c r="AD30" s="25">
+      <c r="AD30" s="7">
         <v>97.159814900276743</v>
       </c>
-      <c r="AE30" s="25">
+      <c r="AE30" s="7">
         <v>96.747824674947282</v>
       </c>
-      <c r="AF30" s="25">
+      <c r="AF30" s="7">
         <v>96.34980294225096</v>
       </c>
-      <c r="AG30" s="25">
+      <c r="AG30" s="7">
         <v>95.964833480685755</v>
       </c>
-      <c r="AH30" s="25">
+      <c r="AH30" s="7">
         <v>95.592087358770442</v>
       </c>
-      <c r="AI30" s="25">
+      <c r="AI30" s="7">
         <v>95.230812187130837</v>
       </c>
     </row>
@@ -28313,110 +28308,110 @@
         <v>27.41</v>
       </c>
     </row>
-    <row r="61" spans="1:35" s="23" customFormat="1">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:35">
+      <c r="A61" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="7">
         <v>43</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="7">
         <v>43</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="7">
         <v>43</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="7">
         <v>43</v>
       </c>
-      <c r="I61" s="25">
+      <c r="I61" s="7">
         <v>43</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J61" s="7">
         <v>43</v>
       </c>
-      <c r="K61" s="25">
+      <c r="K61" s="7">
         <v>43</v>
       </c>
-      <c r="L61" s="25">
+      <c r="L61" s="7">
         <v>43</v>
       </c>
-      <c r="M61" s="25">
+      <c r="M61" s="7">
         <v>43</v>
       </c>
-      <c r="N61" s="25">
+      <c r="N61" s="7">
         <v>43</v>
       </c>
-      <c r="O61" s="25">
+      <c r="O61" s="7">
         <v>43</v>
       </c>
-      <c r="P61" s="25">
+      <c r="P61" s="7">
         <v>43</v>
       </c>
-      <c r="Q61" s="25">
+      <c r="Q61" s="7">
         <v>43</v>
       </c>
-      <c r="R61" s="25">
+      <c r="R61" s="7">
         <v>43</v>
       </c>
-      <c r="S61" s="25">
+      <c r="S61" s="7">
         <v>43</v>
       </c>
-      <c r="T61" s="25">
+      <c r="T61" s="7">
         <v>43</v>
       </c>
-      <c r="U61" s="25">
+      <c r="U61" s="7">
         <v>43</v>
       </c>
-      <c r="V61" s="25">
+      <c r="V61" s="7">
         <v>43</v>
       </c>
-      <c r="W61" s="25">
+      <c r="W61" s="7">
         <v>43</v>
       </c>
-      <c r="X61" s="25">
+      <c r="X61" s="7">
         <v>43</v>
       </c>
-      <c r="Y61" s="25">
+      <c r="Y61" s="7">
         <v>43</v>
       </c>
-      <c r="Z61" s="25">
+      <c r="Z61" s="7">
         <v>43</v>
       </c>
-      <c r="AA61" s="25">
+      <c r="AA61" s="7">
         <v>43</v>
       </c>
-      <c r="AB61" s="25">
+      <c r="AB61" s="7">
         <v>43</v>
       </c>
-      <c r="AC61" s="25">
+      <c r="AC61" s="7">
         <v>43</v>
       </c>
-      <c r="AD61" s="25">
+      <c r="AD61" s="7">
         <v>43</v>
       </c>
-      <c r="AE61" s="25">
+      <c r="AE61" s="7">
         <v>43</v>
       </c>
-      <c r="AF61" s="25">
+      <c r="AF61" s="7">
         <v>43</v>
       </c>
-      <c r="AG61" s="25">
+      <c r="AG61" s="7">
         <v>43</v>
       </c>
-      <c r="AH61" s="25">
+      <c r="AH61" s="7">
         <v>43</v>
       </c>
-      <c r="AI61" s="25">
+      <c r="AI61" s="7">
         <v>43</v>
       </c>
     </row>
@@ -32833,4696 +32828,4696 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="23" customFormat="1">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:35">
+      <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="25">
-        <v>0</v>
-      </c>
-      <c r="O25" s="25">
-        <v>0</v>
-      </c>
-      <c r="P25" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>0</v>
-      </c>
-      <c r="R25" s="25">
-        <v>0</v>
-      </c>
-      <c r="S25" s="25">
-        <v>0</v>
-      </c>
-      <c r="T25" s="25">
-        <v>0</v>
-      </c>
-      <c r="U25" s="25">
-        <v>0</v>
-      </c>
-      <c r="V25" s="25">
-        <v>0</v>
-      </c>
-      <c r="W25" s="25">
-        <v>0</v>
-      </c>
-      <c r="X25" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" s="23" customFormat="1">
-      <c r="A26" s="23" t="s">
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="25">
-        <v>0</v>
-      </c>
-      <c r="J26" s="25">
-        <v>0</v>
-      </c>
-      <c r="K26" s="25">
-        <v>0</v>
-      </c>
-      <c r="L26" s="25">
-        <v>0</v>
-      </c>
-      <c r="M26" s="25">
-        <v>0</v>
-      </c>
-      <c r="N26" s="25">
-        <v>0</v>
-      </c>
-      <c r="O26" s="25">
-        <v>0</v>
-      </c>
-      <c r="P26" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>0</v>
-      </c>
-      <c r="R26" s="25">
-        <v>0</v>
-      </c>
-      <c r="S26" s="25">
-        <v>0</v>
-      </c>
-      <c r="T26" s="25">
-        <v>0</v>
-      </c>
-      <c r="U26" s="25">
-        <v>0</v>
-      </c>
-      <c r="V26" s="25">
-        <v>0</v>
-      </c>
-      <c r="W26" s="25">
-        <v>0</v>
-      </c>
-      <c r="X26" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" s="23" customFormat="1">
-      <c r="A27" s="23" t="s">
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+      <c r="X26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="25">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="25">
-        <v>0</v>
-      </c>
-      <c r="I27" s="25">
-        <v>0</v>
-      </c>
-      <c r="J27" s="25">
-        <v>0</v>
-      </c>
-      <c r="K27" s="25">
-        <v>0</v>
-      </c>
-      <c r="L27" s="25">
-        <v>0</v>
-      </c>
-      <c r="M27" s="25">
-        <v>0</v>
-      </c>
-      <c r="N27" s="25">
-        <v>0</v>
-      </c>
-      <c r="O27" s="25">
-        <v>0</v>
-      </c>
-      <c r="P27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="25">
-        <v>0</v>
-      </c>
-      <c r="R27" s="25">
-        <v>0</v>
-      </c>
-      <c r="S27" s="25">
-        <v>0</v>
-      </c>
-      <c r="T27" s="25">
-        <v>0</v>
-      </c>
-      <c r="U27" s="25">
-        <v>0</v>
-      </c>
-      <c r="V27" s="25">
-        <v>0</v>
-      </c>
-      <c r="W27" s="25">
-        <v>0</v>
-      </c>
-      <c r="X27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" s="23" customFormat="1">
-      <c r="A28" s="23" t="s">
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+      <c r="X27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="25">
-        <v>0</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0</v>
-      </c>
-      <c r="H28" s="25">
-        <v>0</v>
-      </c>
-      <c r="I28" s="25">
-        <v>0</v>
-      </c>
-      <c r="J28" s="25">
-        <v>0</v>
-      </c>
-      <c r="K28" s="25">
-        <v>0</v>
-      </c>
-      <c r="L28" s="25">
-        <v>0</v>
-      </c>
-      <c r="M28" s="25">
-        <v>0</v>
-      </c>
-      <c r="N28" s="25">
-        <v>0</v>
-      </c>
-      <c r="O28" s="25">
-        <v>0</v>
-      </c>
-      <c r="P28" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>0</v>
-      </c>
-      <c r="R28" s="25">
-        <v>0</v>
-      </c>
-      <c r="S28" s="25">
-        <v>0</v>
-      </c>
-      <c r="T28" s="25">
-        <v>0</v>
-      </c>
-      <c r="U28" s="25">
-        <v>0</v>
-      </c>
-      <c r="V28" s="25">
-        <v>0</v>
-      </c>
-      <c r="W28" s="25">
-        <v>0</v>
-      </c>
-      <c r="X28" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" s="23" customFormat="1">
-      <c r="A29" s="23" t="s">
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="25">
-        <v>0</v>
-      </c>
-      <c r="F29" s="25">
-        <v>0</v>
-      </c>
-      <c r="G29" s="25">
-        <v>0</v>
-      </c>
-      <c r="H29" s="25">
-        <v>0</v>
-      </c>
-      <c r="I29" s="25">
-        <v>0</v>
-      </c>
-      <c r="J29" s="25">
-        <v>0</v>
-      </c>
-      <c r="K29" s="25">
-        <v>0</v>
-      </c>
-      <c r="L29" s="25">
-        <v>0</v>
-      </c>
-      <c r="M29" s="25">
-        <v>0</v>
-      </c>
-      <c r="N29" s="25">
-        <v>0</v>
-      </c>
-      <c r="O29" s="25">
-        <v>0</v>
-      </c>
-      <c r="P29" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="25">
-        <v>0</v>
-      </c>
-      <c r="R29" s="25">
-        <v>0</v>
-      </c>
-      <c r="S29" s="25">
-        <v>0</v>
-      </c>
-      <c r="T29" s="25">
-        <v>0</v>
-      </c>
-      <c r="U29" s="25">
-        <v>0</v>
-      </c>
-      <c r="V29" s="25">
-        <v>0</v>
-      </c>
-      <c r="W29" s="25">
-        <v>0</v>
-      </c>
-      <c r="X29" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" s="23" customFormat="1">
-      <c r="A30" s="23" t="s">
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="25">
-        <v>0</v>
-      </c>
-      <c r="F30" s="25">
-        <v>0</v>
-      </c>
-      <c r="G30" s="25">
-        <v>0</v>
-      </c>
-      <c r="H30" s="25">
-        <v>0</v>
-      </c>
-      <c r="I30" s="25">
-        <v>0</v>
-      </c>
-      <c r="J30" s="25">
-        <v>0</v>
-      </c>
-      <c r="K30" s="25">
-        <v>0</v>
-      </c>
-      <c r="L30" s="25">
-        <v>0</v>
-      </c>
-      <c r="M30" s="25">
-        <v>0</v>
-      </c>
-      <c r="N30" s="25">
-        <v>0</v>
-      </c>
-      <c r="O30" s="25">
-        <v>0</v>
-      </c>
-      <c r="P30" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="25">
-        <v>0</v>
-      </c>
-      <c r="R30" s="25">
-        <v>0</v>
-      </c>
-      <c r="S30" s="25">
-        <v>0</v>
-      </c>
-      <c r="T30" s="25">
-        <v>0</v>
-      </c>
-      <c r="U30" s="25">
-        <v>0</v>
-      </c>
-      <c r="V30" s="25">
-        <v>0</v>
-      </c>
-      <c r="W30" s="25">
-        <v>0</v>
-      </c>
-      <c r="X30" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" s="23" customFormat="1">
-      <c r="A31" s="23" t="s">
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="25">
-        <v>0</v>
-      </c>
-      <c r="F31" s="25">
-        <v>0</v>
-      </c>
-      <c r="G31" s="25">
-        <v>0</v>
-      </c>
-      <c r="H31" s="25">
-        <v>0</v>
-      </c>
-      <c r="I31" s="25">
-        <v>0</v>
-      </c>
-      <c r="J31" s="25">
-        <v>0</v>
-      </c>
-      <c r="K31" s="25">
-        <v>0</v>
-      </c>
-      <c r="L31" s="25">
-        <v>0</v>
-      </c>
-      <c r="M31" s="25">
-        <v>0</v>
-      </c>
-      <c r="N31" s="25">
-        <v>0</v>
-      </c>
-      <c r="O31" s="25">
-        <v>0</v>
-      </c>
-      <c r="P31" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>0</v>
-      </c>
-      <c r="R31" s="25">
-        <v>0</v>
-      </c>
-      <c r="S31" s="25">
-        <v>0</v>
-      </c>
-      <c r="T31" s="25">
-        <v>0</v>
-      </c>
-      <c r="U31" s="25">
-        <v>0</v>
-      </c>
-      <c r="V31" s="25">
-        <v>0</v>
-      </c>
-      <c r="W31" s="25">
-        <v>0</v>
-      </c>
-      <c r="X31" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" s="23" customFormat="1">
-      <c r="A32" s="23" t="s">
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+      <c r="X31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="25">
-        <v>0</v>
-      </c>
-      <c r="F32" s="25">
-        <v>0</v>
-      </c>
-      <c r="G32" s="25">
-        <v>0</v>
-      </c>
-      <c r="H32" s="25">
-        <v>0</v>
-      </c>
-      <c r="I32" s="25">
-        <v>0</v>
-      </c>
-      <c r="J32" s="25">
-        <v>0</v>
-      </c>
-      <c r="K32" s="25">
-        <v>0</v>
-      </c>
-      <c r="L32" s="25">
-        <v>0</v>
-      </c>
-      <c r="M32" s="25">
-        <v>0</v>
-      </c>
-      <c r="N32" s="25">
-        <v>0</v>
-      </c>
-      <c r="O32" s="25">
-        <v>0</v>
-      </c>
-      <c r="P32" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="25">
-        <v>0</v>
-      </c>
-      <c r="R32" s="25">
-        <v>0</v>
-      </c>
-      <c r="S32" s="25">
-        <v>0</v>
-      </c>
-      <c r="T32" s="25">
-        <v>0</v>
-      </c>
-      <c r="U32" s="25">
-        <v>0</v>
-      </c>
-      <c r="V32" s="25">
-        <v>0</v>
-      </c>
-      <c r="W32" s="25">
-        <v>0</v>
-      </c>
-      <c r="X32" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" s="23" customFormat="1">
-      <c r="A33" s="23" t="s">
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="25">
-        <v>0</v>
-      </c>
-      <c r="F33" s="25">
-        <v>0</v>
-      </c>
-      <c r="G33" s="25">
-        <v>0</v>
-      </c>
-      <c r="H33" s="25">
-        <v>0</v>
-      </c>
-      <c r="I33" s="25">
-        <v>0</v>
-      </c>
-      <c r="J33" s="25">
-        <v>0</v>
-      </c>
-      <c r="K33" s="25">
-        <v>0</v>
-      </c>
-      <c r="L33" s="25">
-        <v>0</v>
-      </c>
-      <c r="M33" s="25">
-        <v>0</v>
-      </c>
-      <c r="N33" s="25">
-        <v>0</v>
-      </c>
-      <c r="O33" s="25">
-        <v>0</v>
-      </c>
-      <c r="P33" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>0</v>
-      </c>
-      <c r="R33" s="25">
-        <v>0</v>
-      </c>
-      <c r="S33" s="25">
-        <v>0</v>
-      </c>
-      <c r="T33" s="25">
-        <v>0</v>
-      </c>
-      <c r="U33" s="25">
-        <v>0</v>
-      </c>
-      <c r="V33" s="25">
-        <v>0</v>
-      </c>
-      <c r="W33" s="25">
-        <v>0</v>
-      </c>
-      <c r="X33" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" s="23" customFormat="1">
-      <c r="A34" s="23" t="s">
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="25">
-        <v>0</v>
-      </c>
-      <c r="F34" s="25">
-        <v>0</v>
-      </c>
-      <c r="G34" s="25">
-        <v>0</v>
-      </c>
-      <c r="H34" s="25">
-        <v>0</v>
-      </c>
-      <c r="I34" s="25">
-        <v>0</v>
-      </c>
-      <c r="J34" s="25">
-        <v>0</v>
-      </c>
-      <c r="K34" s="25">
-        <v>0</v>
-      </c>
-      <c r="L34" s="25">
-        <v>0</v>
-      </c>
-      <c r="M34" s="25">
-        <v>0</v>
-      </c>
-      <c r="N34" s="25">
-        <v>0</v>
-      </c>
-      <c r="O34" s="25">
-        <v>0</v>
-      </c>
-      <c r="P34" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="25">
-        <v>0</v>
-      </c>
-      <c r="R34" s="25">
-        <v>0</v>
-      </c>
-      <c r="S34" s="25">
-        <v>0</v>
-      </c>
-      <c r="T34" s="25">
-        <v>0</v>
-      </c>
-      <c r="U34" s="25">
-        <v>0</v>
-      </c>
-      <c r="V34" s="25">
-        <v>0</v>
-      </c>
-      <c r="W34" s="25">
-        <v>0</v>
-      </c>
-      <c r="X34" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" s="23" customFormat="1">
-      <c r="A35" s="23" t="s">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <v>0</v>
+      </c>
+      <c r="V34" s="7">
+        <v>0</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0</v>
+      </c>
+      <c r="X34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="25">
-        <v>0</v>
-      </c>
-      <c r="F35" s="25">
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <v>0</v>
-      </c>
-      <c r="I35" s="25">
-        <v>0</v>
-      </c>
-      <c r="J35" s="25">
-        <v>0</v>
-      </c>
-      <c r="K35" s="25">
-        <v>0</v>
-      </c>
-      <c r="L35" s="25">
-        <v>0</v>
-      </c>
-      <c r="M35" s="25">
-        <v>0</v>
-      </c>
-      <c r="N35" s="25">
-        <v>0</v>
-      </c>
-      <c r="O35" s="25">
-        <v>0</v>
-      </c>
-      <c r="P35" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="25">
-        <v>0</v>
-      </c>
-      <c r="R35" s="25">
-        <v>0</v>
-      </c>
-      <c r="S35" s="25">
-        <v>0</v>
-      </c>
-      <c r="T35" s="25">
-        <v>0</v>
-      </c>
-      <c r="U35" s="25">
-        <v>0</v>
-      </c>
-      <c r="V35" s="25">
-        <v>0</v>
-      </c>
-      <c r="W35" s="25">
-        <v>0</v>
-      </c>
-      <c r="X35" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" s="23" customFormat="1">
-      <c r="A36" s="23" t="s">
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+      <c r="X35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="25">
-        <v>0</v>
-      </c>
-      <c r="F36" s="25">
-        <v>0</v>
-      </c>
-      <c r="G36" s="25">
-        <v>0</v>
-      </c>
-      <c r="H36" s="25">
-        <v>0</v>
-      </c>
-      <c r="I36" s="25">
-        <v>0</v>
-      </c>
-      <c r="J36" s="25">
-        <v>0</v>
-      </c>
-      <c r="K36" s="25">
-        <v>0</v>
-      </c>
-      <c r="L36" s="25">
-        <v>0</v>
-      </c>
-      <c r="M36" s="25">
-        <v>0</v>
-      </c>
-      <c r="N36" s="25">
-        <v>0</v>
-      </c>
-      <c r="O36" s="25">
-        <v>0</v>
-      </c>
-      <c r="P36" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="25">
-        <v>0</v>
-      </c>
-      <c r="R36" s="25">
-        <v>0</v>
-      </c>
-      <c r="S36" s="25">
-        <v>0</v>
-      </c>
-      <c r="T36" s="25">
-        <v>0</v>
-      </c>
-      <c r="U36" s="25">
-        <v>0</v>
-      </c>
-      <c r="V36" s="25">
-        <v>0</v>
-      </c>
-      <c r="W36" s="25">
-        <v>0</v>
-      </c>
-      <c r="X36" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" s="23" customFormat="1">
-      <c r="A37" s="23" t="s">
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+      <c r="S36" s="7">
+        <v>0</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0</v>
+      </c>
+      <c r="U36" s="7">
+        <v>0</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0</v>
+      </c>
+      <c r="X36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="25">
-        <v>0</v>
-      </c>
-      <c r="F37" s="25">
-        <v>0</v>
-      </c>
-      <c r="G37" s="25">
-        <v>0</v>
-      </c>
-      <c r="H37" s="25">
-        <v>0</v>
-      </c>
-      <c r="I37" s="25">
-        <v>0</v>
-      </c>
-      <c r="J37" s="25">
-        <v>0</v>
-      </c>
-      <c r="K37" s="25">
-        <v>0</v>
-      </c>
-      <c r="L37" s="25">
-        <v>0</v>
-      </c>
-      <c r="M37" s="25">
-        <v>0</v>
-      </c>
-      <c r="N37" s="25">
-        <v>0</v>
-      </c>
-      <c r="O37" s="25">
-        <v>0</v>
-      </c>
-      <c r="P37" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="25">
-        <v>0</v>
-      </c>
-      <c r="R37" s="25">
-        <v>0</v>
-      </c>
-      <c r="S37" s="25">
-        <v>0</v>
-      </c>
-      <c r="T37" s="25">
-        <v>0</v>
-      </c>
-      <c r="U37" s="25">
-        <v>0</v>
-      </c>
-      <c r="V37" s="25">
-        <v>0</v>
-      </c>
-      <c r="W37" s="25">
-        <v>0</v>
-      </c>
-      <c r="X37" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" s="23" customFormat="1">
-      <c r="A38" s="23" t="s">
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7">
+        <v>0</v>
+      </c>
+      <c r="U37" s="7">
+        <v>0</v>
+      </c>
+      <c r="V37" s="7">
+        <v>0</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0</v>
+      </c>
+      <c r="X37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="25">
-        <v>0</v>
-      </c>
-      <c r="F38" s="25">
-        <v>0</v>
-      </c>
-      <c r="G38" s="25">
-        <v>0</v>
-      </c>
-      <c r="H38" s="25">
-        <v>0</v>
-      </c>
-      <c r="I38" s="25">
-        <v>0</v>
-      </c>
-      <c r="J38" s="25">
-        <v>0</v>
-      </c>
-      <c r="K38" s="25">
-        <v>0</v>
-      </c>
-      <c r="L38" s="25">
-        <v>0</v>
-      </c>
-      <c r="M38" s="25">
-        <v>0</v>
-      </c>
-      <c r="N38" s="25">
-        <v>0</v>
-      </c>
-      <c r="O38" s="25">
-        <v>0</v>
-      </c>
-      <c r="P38" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="25">
-        <v>0</v>
-      </c>
-      <c r="R38" s="25">
-        <v>0</v>
-      </c>
-      <c r="S38" s="25">
-        <v>0</v>
-      </c>
-      <c r="T38" s="25">
-        <v>0</v>
-      </c>
-      <c r="U38" s="25">
-        <v>0</v>
-      </c>
-      <c r="V38" s="25">
-        <v>0</v>
-      </c>
-      <c r="W38" s="25">
-        <v>0</v>
-      </c>
-      <c r="X38" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" s="23" customFormat="1">
-      <c r="A39" s="23" t="s">
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+      <c r="S38" s="7">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0</v>
+      </c>
+      <c r="U38" s="7">
+        <v>0</v>
+      </c>
+      <c r="V38" s="7">
+        <v>0</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0</v>
+      </c>
+      <c r="X38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="25">
-        <v>0</v>
-      </c>
-      <c r="F39" s="25">
-        <v>0</v>
-      </c>
-      <c r="G39" s="25">
-        <v>0</v>
-      </c>
-      <c r="H39" s="25">
-        <v>0</v>
-      </c>
-      <c r="I39" s="25">
-        <v>0</v>
-      </c>
-      <c r="J39" s="25">
-        <v>0</v>
-      </c>
-      <c r="K39" s="25">
-        <v>0</v>
-      </c>
-      <c r="L39" s="25">
-        <v>0</v>
-      </c>
-      <c r="M39" s="25">
-        <v>0</v>
-      </c>
-      <c r="N39" s="25">
-        <v>0</v>
-      </c>
-      <c r="O39" s="25">
-        <v>0</v>
-      </c>
-      <c r="P39" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="25">
-        <v>0</v>
-      </c>
-      <c r="R39" s="25">
-        <v>0</v>
-      </c>
-      <c r="S39" s="25">
-        <v>0</v>
-      </c>
-      <c r="T39" s="25">
-        <v>0</v>
-      </c>
-      <c r="U39" s="25">
-        <v>0</v>
-      </c>
-      <c r="V39" s="25">
-        <v>0</v>
-      </c>
-      <c r="W39" s="25">
-        <v>0</v>
-      </c>
-      <c r="X39" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" s="23" customFormat="1">
-      <c r="A40" s="23" t="s">
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
+      <c r="U39" s="7">
+        <v>0</v>
+      </c>
+      <c r="V39" s="7">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0</v>
+      </c>
+      <c r="X39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="25">
-        <v>0</v>
-      </c>
-      <c r="F40" s="25">
-        <v>0</v>
-      </c>
-      <c r="G40" s="25">
-        <v>0</v>
-      </c>
-      <c r="H40" s="25">
-        <v>0</v>
-      </c>
-      <c r="I40" s="25">
-        <v>0</v>
-      </c>
-      <c r="J40" s="25">
-        <v>0</v>
-      </c>
-      <c r="K40" s="25">
-        <v>0</v>
-      </c>
-      <c r="L40" s="25">
-        <v>0</v>
-      </c>
-      <c r="M40" s="25">
-        <v>0</v>
-      </c>
-      <c r="N40" s="25">
-        <v>0</v>
-      </c>
-      <c r="O40" s="25">
-        <v>0</v>
-      </c>
-      <c r="P40" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="25">
-        <v>0</v>
-      </c>
-      <c r="R40" s="25">
-        <v>0</v>
-      </c>
-      <c r="S40" s="25">
-        <v>0</v>
-      </c>
-      <c r="T40" s="25">
-        <v>0</v>
-      </c>
-      <c r="U40" s="25">
-        <v>0</v>
-      </c>
-      <c r="V40" s="25">
-        <v>0</v>
-      </c>
-      <c r="W40" s="25">
-        <v>0</v>
-      </c>
-      <c r="X40" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" s="23" customFormat="1">
-      <c r="A41" s="23" t="s">
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="7">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7">
+        <v>0</v>
+      </c>
+      <c r="V40" s="7">
+        <v>0</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0</v>
+      </c>
+      <c r="X40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="25">
-        <v>0</v>
-      </c>
-      <c r="F41" s="25">
-        <v>0</v>
-      </c>
-      <c r="G41" s="25">
-        <v>0</v>
-      </c>
-      <c r="H41" s="25">
-        <v>0</v>
-      </c>
-      <c r="I41" s="25">
-        <v>0</v>
-      </c>
-      <c r="J41" s="25">
-        <v>0</v>
-      </c>
-      <c r="K41" s="25">
-        <v>0</v>
-      </c>
-      <c r="L41" s="25">
-        <v>0</v>
-      </c>
-      <c r="M41" s="25">
-        <v>0</v>
-      </c>
-      <c r="N41" s="25">
-        <v>0</v>
-      </c>
-      <c r="O41" s="25">
-        <v>0</v>
-      </c>
-      <c r="P41" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="25">
-        <v>0</v>
-      </c>
-      <c r="R41" s="25">
-        <v>0</v>
-      </c>
-      <c r="S41" s="25">
-        <v>0</v>
-      </c>
-      <c r="T41" s="25">
-        <v>0</v>
-      </c>
-      <c r="U41" s="25">
-        <v>0</v>
-      </c>
-      <c r="V41" s="25">
-        <v>0</v>
-      </c>
-      <c r="W41" s="25">
-        <v>0</v>
-      </c>
-      <c r="X41" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" s="23" customFormat="1">
-      <c r="A42" s="23" t="s">
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0</v>
+      </c>
+      <c r="U41" s="7">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0</v>
+      </c>
+      <c r="X41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="25">
-        <v>0</v>
-      </c>
-      <c r="F42" s="25">
-        <v>0</v>
-      </c>
-      <c r="G42" s="25">
-        <v>0</v>
-      </c>
-      <c r="H42" s="25">
-        <v>0</v>
-      </c>
-      <c r="I42" s="25">
-        <v>0</v>
-      </c>
-      <c r="J42" s="25">
-        <v>0</v>
-      </c>
-      <c r="K42" s="25">
-        <v>0</v>
-      </c>
-      <c r="L42" s="25">
-        <v>0</v>
-      </c>
-      <c r="M42" s="25">
-        <v>0</v>
-      </c>
-      <c r="N42" s="25">
-        <v>0</v>
-      </c>
-      <c r="O42" s="25">
-        <v>0</v>
-      </c>
-      <c r="P42" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="25">
-        <v>0</v>
-      </c>
-      <c r="R42" s="25">
-        <v>0</v>
-      </c>
-      <c r="S42" s="25">
-        <v>0</v>
-      </c>
-      <c r="T42" s="25">
-        <v>0</v>
-      </c>
-      <c r="U42" s="25">
-        <v>0</v>
-      </c>
-      <c r="V42" s="25">
-        <v>0</v>
-      </c>
-      <c r="W42" s="25">
-        <v>0</v>
-      </c>
-      <c r="X42" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" s="23" customFormat="1">
-      <c r="A43" s="23" t="s">
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0</v>
+      </c>
+      <c r="X42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
+      <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="25">
-        <v>0</v>
-      </c>
-      <c r="F43" s="25">
-        <v>0</v>
-      </c>
-      <c r="G43" s="25">
-        <v>0</v>
-      </c>
-      <c r="H43" s="25">
-        <v>0</v>
-      </c>
-      <c r="I43" s="25">
-        <v>0</v>
-      </c>
-      <c r="J43" s="25">
-        <v>0</v>
-      </c>
-      <c r="K43" s="25">
-        <v>0</v>
-      </c>
-      <c r="L43" s="25">
-        <v>0</v>
-      </c>
-      <c r="M43" s="25">
-        <v>0</v>
-      </c>
-      <c r="N43" s="25">
-        <v>0</v>
-      </c>
-      <c r="O43" s="25">
-        <v>0</v>
-      </c>
-      <c r="P43" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="25">
-        <v>0</v>
-      </c>
-      <c r="R43" s="25">
-        <v>0</v>
-      </c>
-      <c r="S43" s="25">
-        <v>0</v>
-      </c>
-      <c r="T43" s="25">
-        <v>0</v>
-      </c>
-      <c r="U43" s="25">
-        <v>0</v>
-      </c>
-      <c r="V43" s="25">
-        <v>0</v>
-      </c>
-      <c r="W43" s="25">
-        <v>0</v>
-      </c>
-      <c r="X43" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" s="23" customFormat="1">
-      <c r="A44" s="23" t="s">
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0</v>
+      </c>
+      <c r="U43" s="7">
+        <v>0</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+      <c r="W43" s="7">
+        <v>0</v>
+      </c>
+      <c r="X43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="25">
-        <v>0</v>
-      </c>
-      <c r="F44" s="25">
-        <v>0</v>
-      </c>
-      <c r="G44" s="25">
-        <v>0</v>
-      </c>
-      <c r="H44" s="25">
-        <v>0</v>
-      </c>
-      <c r="I44" s="25">
-        <v>0</v>
-      </c>
-      <c r="J44" s="25">
-        <v>0</v>
-      </c>
-      <c r="K44" s="25">
-        <v>0</v>
-      </c>
-      <c r="L44" s="25">
-        <v>0</v>
-      </c>
-      <c r="M44" s="25">
-        <v>0</v>
-      </c>
-      <c r="N44" s="25">
-        <v>0</v>
-      </c>
-      <c r="O44" s="25">
-        <v>0</v>
-      </c>
-      <c r="P44" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="25">
-        <v>0</v>
-      </c>
-      <c r="R44" s="25">
-        <v>0</v>
-      </c>
-      <c r="S44" s="25">
-        <v>0</v>
-      </c>
-      <c r="T44" s="25">
-        <v>0</v>
-      </c>
-      <c r="U44" s="25">
-        <v>0</v>
-      </c>
-      <c r="V44" s="25">
-        <v>0</v>
-      </c>
-      <c r="W44" s="25">
-        <v>0</v>
-      </c>
-      <c r="X44" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" s="23" customFormat="1">
-      <c r="A45" s="23" t="s">
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>0</v>
+      </c>
+      <c r="U44" s="7">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0</v>
+      </c>
+      <c r="X44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="25">
-        <v>0</v>
-      </c>
-      <c r="F45" s="25">
-        <v>0</v>
-      </c>
-      <c r="G45" s="25">
-        <v>0</v>
-      </c>
-      <c r="H45" s="25">
-        <v>0</v>
-      </c>
-      <c r="I45" s="25">
-        <v>0</v>
-      </c>
-      <c r="J45" s="25">
-        <v>0</v>
-      </c>
-      <c r="K45" s="25">
-        <v>0</v>
-      </c>
-      <c r="L45" s="25">
-        <v>0</v>
-      </c>
-      <c r="M45" s="25">
-        <v>0</v>
-      </c>
-      <c r="N45" s="25">
-        <v>0</v>
-      </c>
-      <c r="O45" s="25">
-        <v>0</v>
-      </c>
-      <c r="P45" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="25">
-        <v>0</v>
-      </c>
-      <c r="R45" s="25">
-        <v>0</v>
-      </c>
-      <c r="S45" s="25">
-        <v>0</v>
-      </c>
-      <c r="T45" s="25">
-        <v>0</v>
-      </c>
-      <c r="U45" s="25">
-        <v>0</v>
-      </c>
-      <c r="V45" s="25">
-        <v>0</v>
-      </c>
-      <c r="W45" s="25">
-        <v>0</v>
-      </c>
-      <c r="X45" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" s="23" customFormat="1">
-      <c r="A46" s="23" t="s">
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
+      </c>
+      <c r="U45" s="7">
+        <v>0</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0</v>
+      </c>
+      <c r="X45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="7">
         <v>14</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="7">
         <v>14</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="7">
         <v>14</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="7">
         <v>14</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I46" s="7">
         <v>14</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J46" s="7">
         <v>14</v>
       </c>
-      <c r="K46" s="25">
+      <c r="K46" s="7">
         <v>14</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46" s="7">
         <v>14</v>
       </c>
-      <c r="M46" s="25">
+      <c r="M46" s="7">
         <v>14</v>
       </c>
-      <c r="N46" s="25">
+      <c r="N46" s="7">
         <v>14</v>
       </c>
-      <c r="O46" s="25">
+      <c r="O46" s="7">
         <v>14</v>
       </c>
-      <c r="P46" s="25">
+      <c r="P46" s="7">
         <v>14</v>
       </c>
-      <c r="Q46" s="25">
+      <c r="Q46" s="7">
         <v>14</v>
       </c>
-      <c r="R46" s="25">
+      <c r="R46" s="7">
         <v>14</v>
       </c>
-      <c r="S46" s="25">
+      <c r="S46" s="7">
         <v>14</v>
       </c>
-      <c r="T46" s="25">
+      <c r="T46" s="7">
         <v>14</v>
       </c>
-      <c r="U46" s="25">
+      <c r="U46" s="7">
         <v>14</v>
       </c>
-      <c r="V46" s="25">
+      <c r="V46" s="7">
         <v>14</v>
       </c>
-      <c r="W46" s="25">
+      <c r="W46" s="7">
         <v>14</v>
       </c>
-      <c r="X46" s="25">
+      <c r="X46" s="7">
         <v>14</v>
       </c>
-      <c r="Y46" s="25">
+      <c r="Y46" s="7">
         <v>14</v>
       </c>
-      <c r="Z46" s="25">
+      <c r="Z46" s="7">
         <v>14</v>
       </c>
-      <c r="AA46" s="25">
+      <c r="AA46" s="7">
         <v>14</v>
       </c>
-      <c r="AB46" s="25">
+      <c r="AB46" s="7">
         <v>14</v>
       </c>
-      <c r="AC46" s="25">
+      <c r="AC46" s="7">
         <v>14</v>
       </c>
-      <c r="AD46" s="25">
+      <c r="AD46" s="7">
         <v>14</v>
       </c>
-      <c r="AE46" s="25">
+      <c r="AE46" s="7">
         <v>14</v>
       </c>
-      <c r="AF46" s="25">
+      <c r="AF46" s="7">
         <v>14</v>
       </c>
-      <c r="AG46" s="25">
+      <c r="AG46" s="7">
         <v>14</v>
       </c>
-      <c r="AH46" s="25">
+      <c r="AH46" s="7">
         <v>14</v>
       </c>
-      <c r="AI46" s="25">
+      <c r="AI46" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:35" s="23" customFormat="1">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:35">
+      <c r="A47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="7">
         <v>6</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="7">
         <v>6</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="7">
         <v>6</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="7">
         <v>6</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="7">
         <v>6</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="7">
         <v>6</v>
       </c>
-      <c r="K47" s="25">
+      <c r="K47" s="7">
         <v>6</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="7">
         <v>6</v>
       </c>
-      <c r="M47" s="25">
+      <c r="M47" s="7">
         <v>6</v>
       </c>
-      <c r="N47" s="25">
+      <c r="N47" s="7">
         <v>6</v>
       </c>
-      <c r="O47" s="25">
+      <c r="O47" s="7">
         <v>6</v>
       </c>
-      <c r="P47" s="25">
+      <c r="P47" s="7">
         <v>6</v>
       </c>
-      <c r="Q47" s="25">
+      <c r="Q47" s="7">
         <v>6</v>
       </c>
-      <c r="R47" s="25">
+      <c r="R47" s="7">
         <v>6</v>
       </c>
-      <c r="S47" s="25">
+      <c r="S47" s="7">
         <v>6</v>
       </c>
-      <c r="T47" s="25">
+      <c r="T47" s="7">
         <v>6</v>
       </c>
-      <c r="U47" s="25">
+      <c r="U47" s="7">
         <v>6</v>
       </c>
-      <c r="V47" s="25">
+      <c r="V47" s="7">
         <v>6</v>
       </c>
-      <c r="W47" s="25">
+      <c r="W47" s="7">
         <v>6</v>
       </c>
-      <c r="X47" s="25">
+      <c r="X47" s="7">
         <v>6</v>
       </c>
-      <c r="Y47" s="25">
+      <c r="Y47" s="7">
         <v>6</v>
       </c>
-      <c r="Z47" s="25">
+      <c r="Z47" s="7">
         <v>6</v>
       </c>
-      <c r="AA47" s="25">
+      <c r="AA47" s="7">
         <v>6</v>
       </c>
-      <c r="AB47" s="25">
+      <c r="AB47" s="7">
         <v>6</v>
       </c>
-      <c r="AC47" s="25">
+      <c r="AC47" s="7">
         <v>6</v>
       </c>
-      <c r="AD47" s="25">
+      <c r="AD47" s="7">
         <v>6</v>
       </c>
-      <c r="AE47" s="25">
+      <c r="AE47" s="7">
         <v>6</v>
       </c>
-      <c r="AF47" s="25">
+      <c r="AF47" s="7">
         <v>6</v>
       </c>
-      <c r="AG47" s="25">
+      <c r="AG47" s="7">
         <v>6</v>
       </c>
-      <c r="AH47" s="25">
+      <c r="AH47" s="7">
         <v>6</v>
       </c>
-      <c r="AI47" s="25">
+      <c r="AI47" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="23" customFormat="1">
-      <c r="A48" s="23" t="s">
+    <row r="48" spans="1:35">
+      <c r="A48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="7">
         <v>6</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="7">
         <v>6</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="7">
         <v>6</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H48" s="7">
         <v>6</v>
       </c>
-      <c r="I48" s="25">
+      <c r="I48" s="7">
         <v>6</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="7">
         <v>6</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K48" s="7">
         <v>6</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L48" s="7">
         <v>6</v>
       </c>
-      <c r="M48" s="25">
+      <c r="M48" s="7">
         <v>6</v>
       </c>
-      <c r="N48" s="25">
+      <c r="N48" s="7">
         <v>6</v>
       </c>
-      <c r="O48" s="25">
+      <c r="O48" s="7">
         <v>6</v>
       </c>
-      <c r="P48" s="25">
+      <c r="P48" s="7">
         <v>6</v>
       </c>
-      <c r="Q48" s="25">
+      <c r="Q48" s="7">
         <v>6</v>
       </c>
-      <c r="R48" s="25">
+      <c r="R48" s="7">
         <v>6</v>
       </c>
-      <c r="S48" s="25">
+      <c r="S48" s="7">
         <v>6</v>
       </c>
-      <c r="T48" s="25">
+      <c r="T48" s="7">
         <v>6</v>
       </c>
-      <c r="U48" s="25">
+      <c r="U48" s="7">
         <v>6</v>
       </c>
-      <c r="V48" s="25">
+      <c r="V48" s="7">
         <v>6</v>
       </c>
-      <c r="W48" s="25">
+      <c r="W48" s="7">
         <v>6</v>
       </c>
-      <c r="X48" s="25">
+      <c r="X48" s="7">
         <v>6</v>
       </c>
-      <c r="Y48" s="25">
+      <c r="Y48" s="7">
         <v>6</v>
       </c>
-      <c r="Z48" s="25">
+      <c r="Z48" s="7">
         <v>6</v>
       </c>
-      <c r="AA48" s="25">
+      <c r="AA48" s="7">
         <v>6</v>
       </c>
-      <c r="AB48" s="25">
+      <c r="AB48" s="7">
         <v>6</v>
       </c>
-      <c r="AC48" s="25">
+      <c r="AC48" s="7">
         <v>6</v>
       </c>
-      <c r="AD48" s="25">
+      <c r="AD48" s="7">
         <v>6</v>
       </c>
-      <c r="AE48" s="25">
+      <c r="AE48" s="7">
         <v>6</v>
       </c>
-      <c r="AF48" s="25">
+      <c r="AF48" s="7">
         <v>6</v>
       </c>
-      <c r="AG48" s="25">
+      <c r="AG48" s="7">
         <v>6</v>
       </c>
-      <c r="AH48" s="25">
+      <c r="AH48" s="7">
         <v>6</v>
       </c>
-      <c r="AI48" s="25">
+      <c r="AI48" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="23" customFormat="1">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:35">
+      <c r="A49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="7">
         <v>6</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="7">
         <v>6</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="7">
         <v>6</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="7">
         <v>6</v>
       </c>
-      <c r="I49" s="25">
+      <c r="I49" s="7">
         <v>6</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="7">
         <v>6</v>
       </c>
-      <c r="K49" s="25">
+      <c r="K49" s="7">
         <v>6</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L49" s="7">
         <v>6</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M49" s="7">
         <v>6</v>
       </c>
-      <c r="N49" s="25">
+      <c r="N49" s="7">
         <v>6</v>
       </c>
-      <c r="O49" s="25">
+      <c r="O49" s="7">
         <v>6</v>
       </c>
-      <c r="P49" s="25">
+      <c r="P49" s="7">
         <v>6</v>
       </c>
-      <c r="Q49" s="25">
+      <c r="Q49" s="7">
         <v>6</v>
       </c>
-      <c r="R49" s="25">
+      <c r="R49" s="7">
         <v>6</v>
       </c>
-      <c r="S49" s="25">
+      <c r="S49" s="7">
         <v>6</v>
       </c>
-      <c r="T49" s="25">
+      <c r="T49" s="7">
         <v>6</v>
       </c>
-      <c r="U49" s="25">
+      <c r="U49" s="7">
         <v>6</v>
       </c>
-      <c r="V49" s="25">
+      <c r="V49" s="7">
         <v>6</v>
       </c>
-      <c r="W49" s="25">
+      <c r="W49" s="7">
         <v>6</v>
       </c>
-      <c r="X49" s="25">
+      <c r="X49" s="7">
         <v>6</v>
       </c>
-      <c r="Y49" s="25">
+      <c r="Y49" s="7">
         <v>6</v>
       </c>
-      <c r="Z49" s="25">
+      <c r="Z49" s="7">
         <v>6</v>
       </c>
-      <c r="AA49" s="25">
+      <c r="AA49" s="7">
         <v>6</v>
       </c>
-      <c r="AB49" s="25">
+      <c r="AB49" s="7">
         <v>6</v>
       </c>
-      <c r="AC49" s="25">
+      <c r="AC49" s="7">
         <v>6</v>
       </c>
-      <c r="AD49" s="25">
+      <c r="AD49" s="7">
         <v>6</v>
       </c>
-      <c r="AE49" s="25">
+      <c r="AE49" s="7">
         <v>6</v>
       </c>
-      <c r="AF49" s="25">
+      <c r="AF49" s="7">
         <v>6</v>
       </c>
-      <c r="AG49" s="25">
+      <c r="AG49" s="7">
         <v>6</v>
       </c>
-      <c r="AH49" s="25">
+      <c r="AH49" s="7">
         <v>6</v>
       </c>
-      <c r="AI49" s="25">
+      <c r="AI49" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="23" customFormat="1">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:35">
+      <c r="A50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="7">
         <v>6</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="7">
         <v>6</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="7">
         <v>6</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="7">
         <v>6</v>
       </c>
-      <c r="I50" s="25">
+      <c r="I50" s="7">
         <v>6</v>
       </c>
-      <c r="J50" s="25">
+      <c r="J50" s="7">
         <v>6</v>
       </c>
-      <c r="K50" s="25">
+      <c r="K50" s="7">
         <v>6</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="7">
         <v>6</v>
       </c>
-      <c r="M50" s="25">
+      <c r="M50" s="7">
         <v>6</v>
       </c>
-      <c r="N50" s="25">
+      <c r="N50" s="7">
         <v>6</v>
       </c>
-      <c r="O50" s="25">
+      <c r="O50" s="7">
         <v>6</v>
       </c>
-      <c r="P50" s="25">
+      <c r="P50" s="7">
         <v>6</v>
       </c>
-      <c r="Q50" s="25">
+      <c r="Q50" s="7">
         <v>6</v>
       </c>
-      <c r="R50" s="25">
+      <c r="R50" s="7">
         <v>6</v>
       </c>
-      <c r="S50" s="25">
+      <c r="S50" s="7">
         <v>6</v>
       </c>
-      <c r="T50" s="25">
+      <c r="T50" s="7">
         <v>6</v>
       </c>
-      <c r="U50" s="25">
+      <c r="U50" s="7">
         <v>6</v>
       </c>
-      <c r="V50" s="25">
+      <c r="V50" s="7">
         <v>6</v>
       </c>
-      <c r="W50" s="25">
+      <c r="W50" s="7">
         <v>6</v>
       </c>
-      <c r="X50" s="25">
+      <c r="X50" s="7">
         <v>6</v>
       </c>
-      <c r="Y50" s="25">
+      <c r="Y50" s="7">
         <v>6</v>
       </c>
-      <c r="Z50" s="25">
+      <c r="Z50" s="7">
         <v>6</v>
       </c>
-      <c r="AA50" s="25">
+      <c r="AA50" s="7">
         <v>6</v>
       </c>
-      <c r="AB50" s="25">
+      <c r="AB50" s="7">
         <v>6</v>
       </c>
-      <c r="AC50" s="25">
+      <c r="AC50" s="7">
         <v>6</v>
       </c>
-      <c r="AD50" s="25">
+      <c r="AD50" s="7">
         <v>6</v>
       </c>
-      <c r="AE50" s="25">
+      <c r="AE50" s="7">
         <v>6</v>
       </c>
-      <c r="AF50" s="25">
+      <c r="AF50" s="7">
         <v>6</v>
       </c>
-      <c r="AG50" s="25">
+      <c r="AG50" s="7">
         <v>6</v>
       </c>
-      <c r="AH50" s="25">
+      <c r="AH50" s="7">
         <v>6</v>
       </c>
-      <c r="AI50" s="25">
+      <c r="AI50" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="23" customFormat="1">
-      <c r="A51" s="23" t="s">
+    <row r="51" spans="1:35">
+      <c r="A51" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="7">
         <v>6</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="7">
         <v>6</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="7">
         <v>6</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H51" s="7">
         <v>6</v>
       </c>
-      <c r="I51" s="25">
+      <c r="I51" s="7">
         <v>6</v>
       </c>
-      <c r="J51" s="25">
+      <c r="J51" s="7">
         <v>6</v>
       </c>
-      <c r="K51" s="25">
+      <c r="K51" s="7">
         <v>6</v>
       </c>
-      <c r="L51" s="25">
+      <c r="L51" s="7">
         <v>6</v>
       </c>
-      <c r="M51" s="25">
+      <c r="M51" s="7">
         <v>6</v>
       </c>
-      <c r="N51" s="25">
+      <c r="N51" s="7">
         <v>6</v>
       </c>
-      <c r="O51" s="25">
+      <c r="O51" s="7">
         <v>6</v>
       </c>
-      <c r="P51" s="25">
+      <c r="P51" s="7">
         <v>6</v>
       </c>
-      <c r="Q51" s="25">
+      <c r="Q51" s="7">
         <v>6</v>
       </c>
-      <c r="R51" s="25">
+      <c r="R51" s="7">
         <v>6</v>
       </c>
-      <c r="S51" s="25">
+      <c r="S51" s="7">
         <v>6</v>
       </c>
-      <c r="T51" s="25">
+      <c r="T51" s="7">
         <v>6</v>
       </c>
-      <c r="U51" s="25">
+      <c r="U51" s="7">
         <v>6</v>
       </c>
-      <c r="V51" s="25">
+      <c r="V51" s="7">
         <v>6</v>
       </c>
-      <c r="W51" s="25">
+      <c r="W51" s="7">
         <v>6</v>
       </c>
-      <c r="X51" s="25">
+      <c r="X51" s="7">
         <v>6</v>
       </c>
-      <c r="Y51" s="25">
+      <c r="Y51" s="7">
         <v>6</v>
       </c>
-      <c r="Z51" s="25">
+      <c r="Z51" s="7">
         <v>6</v>
       </c>
-      <c r="AA51" s="25">
+      <c r="AA51" s="7">
         <v>6</v>
       </c>
-      <c r="AB51" s="25">
+      <c r="AB51" s="7">
         <v>6</v>
       </c>
-      <c r="AC51" s="25">
+      <c r="AC51" s="7">
         <v>6</v>
       </c>
-      <c r="AD51" s="25">
+      <c r="AD51" s="7">
         <v>6</v>
       </c>
-      <c r="AE51" s="25">
+      <c r="AE51" s="7">
         <v>6</v>
       </c>
-      <c r="AF51" s="25">
+      <c r="AF51" s="7">
         <v>6</v>
       </c>
-      <c r="AG51" s="25">
+      <c r="AG51" s="7">
         <v>6</v>
       </c>
-      <c r="AH51" s="25">
+      <c r="AH51" s="7">
         <v>6</v>
       </c>
-      <c r="AI51" s="25">
+      <c r="AI51" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="23" customFormat="1">
-      <c r="A52" s="23" t="s">
+    <row r="52" spans="1:35">
+      <c r="A52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="7">
         <v>6</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="7">
         <v>6</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="7">
         <v>6</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="7">
         <v>6</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="7">
         <v>6</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="7">
         <v>6</v>
       </c>
-      <c r="K52" s="25">
+      <c r="K52" s="7">
         <v>6</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="7">
         <v>6</v>
       </c>
-      <c r="M52" s="25">
+      <c r="M52" s="7">
         <v>6</v>
       </c>
-      <c r="N52" s="25">
+      <c r="N52" s="7">
         <v>6</v>
       </c>
-      <c r="O52" s="25">
+      <c r="O52" s="7">
         <v>6</v>
       </c>
-      <c r="P52" s="25">
+      <c r="P52" s="7">
         <v>6</v>
       </c>
-      <c r="Q52" s="25">
+      <c r="Q52" s="7">
         <v>6</v>
       </c>
-      <c r="R52" s="25">
+      <c r="R52" s="7">
         <v>6</v>
       </c>
-      <c r="S52" s="25">
+      <c r="S52" s="7">
         <v>6</v>
       </c>
-      <c r="T52" s="25">
+      <c r="T52" s="7">
         <v>6</v>
       </c>
-      <c r="U52" s="25">
+      <c r="U52" s="7">
         <v>6</v>
       </c>
-      <c r="V52" s="25">
+      <c r="V52" s="7">
         <v>6</v>
       </c>
-      <c r="W52" s="25">
+      <c r="W52" s="7">
         <v>6</v>
       </c>
-      <c r="X52" s="25">
+      <c r="X52" s="7">
         <v>6</v>
       </c>
-      <c r="Y52" s="25">
+      <c r="Y52" s="7">
         <v>6</v>
       </c>
-      <c r="Z52" s="25">
+      <c r="Z52" s="7">
         <v>6</v>
       </c>
-      <c r="AA52" s="25">
+      <c r="AA52" s="7">
         <v>6</v>
       </c>
-      <c r="AB52" s="25">
+      <c r="AB52" s="7">
         <v>6</v>
       </c>
-      <c r="AC52" s="25">
+      <c r="AC52" s="7">
         <v>6</v>
       </c>
-      <c r="AD52" s="25">
+      <c r="AD52" s="7">
         <v>6</v>
       </c>
-      <c r="AE52" s="25">
+      <c r="AE52" s="7">
         <v>6</v>
       </c>
-      <c r="AF52" s="25">
+      <c r="AF52" s="7">
         <v>6</v>
       </c>
-      <c r="AG52" s="25">
+      <c r="AG52" s="7">
         <v>6</v>
       </c>
-      <c r="AH52" s="25">
+      <c r="AH52" s="7">
         <v>6</v>
       </c>
-      <c r="AI52" s="25">
+      <c r="AI52" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="23" customFormat="1">
-      <c r="A53" s="23" t="s">
+    <row r="53" spans="1:35">
+      <c r="A53" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="7">
         <v>6</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="7">
         <v>6</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="7">
         <v>6</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="7">
         <v>6</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I53" s="7">
         <v>6</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J53" s="7">
         <v>6</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K53" s="7">
         <v>6</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="7">
         <v>6</v>
       </c>
-      <c r="M53" s="25">
+      <c r="M53" s="7">
         <v>6</v>
       </c>
-      <c r="N53" s="25">
+      <c r="N53" s="7">
         <v>6</v>
       </c>
-      <c r="O53" s="25">
+      <c r="O53" s="7">
         <v>6</v>
       </c>
-      <c r="P53" s="25">
+      <c r="P53" s="7">
         <v>6</v>
       </c>
-      <c r="Q53" s="25">
+      <c r="Q53" s="7">
         <v>6</v>
       </c>
-      <c r="R53" s="25">
+      <c r="R53" s="7">
         <v>6</v>
       </c>
-      <c r="S53" s="25">
+      <c r="S53" s="7">
         <v>6</v>
       </c>
-      <c r="T53" s="25">
+      <c r="T53" s="7">
         <v>6</v>
       </c>
-      <c r="U53" s="25">
+      <c r="U53" s="7">
         <v>6</v>
       </c>
-      <c r="V53" s="25">
+      <c r="V53" s="7">
         <v>6</v>
       </c>
-      <c r="W53" s="25">
+      <c r="W53" s="7">
         <v>6</v>
       </c>
-      <c r="X53" s="25">
+      <c r="X53" s="7">
         <v>6</v>
       </c>
-      <c r="Y53" s="25">
+      <c r="Y53" s="7">
         <v>6</v>
       </c>
-      <c r="Z53" s="25">
+      <c r="Z53" s="7">
         <v>6</v>
       </c>
-      <c r="AA53" s="25">
+      <c r="AA53" s="7">
         <v>6</v>
       </c>
-      <c r="AB53" s="25">
+      <c r="AB53" s="7">
         <v>6</v>
       </c>
-      <c r="AC53" s="25">
+      <c r="AC53" s="7">
         <v>6</v>
       </c>
-      <c r="AD53" s="25">
+      <c r="AD53" s="7">
         <v>6</v>
       </c>
-      <c r="AE53" s="25">
+      <c r="AE53" s="7">
         <v>6</v>
       </c>
-      <c r="AF53" s="25">
+      <c r="AF53" s="7">
         <v>6</v>
       </c>
-      <c r="AG53" s="25">
+      <c r="AG53" s="7">
         <v>6</v>
       </c>
-      <c r="AH53" s="25">
+      <c r="AH53" s="7">
         <v>6</v>
       </c>
-      <c r="AI53" s="25">
+      <c r="AI53" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:35" s="23" customFormat="1">
-      <c r="A54" s="23" t="s">
+    <row r="54" spans="1:35">
+      <c r="A54" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="25">
-        <v>0</v>
-      </c>
-      <c r="F54" s="25">
-        <v>0</v>
-      </c>
-      <c r="G54" s="25">
-        <v>0</v>
-      </c>
-      <c r="H54" s="25">
-        <v>0</v>
-      </c>
-      <c r="I54" s="25">
-        <v>0</v>
-      </c>
-      <c r="J54" s="25">
-        <v>0</v>
-      </c>
-      <c r="K54" s="25">
-        <v>0</v>
-      </c>
-      <c r="L54" s="25">
-        <v>0</v>
-      </c>
-      <c r="M54" s="25">
-        <v>0</v>
-      </c>
-      <c r="N54" s="25">
-        <v>0</v>
-      </c>
-      <c r="O54" s="25">
-        <v>0</v>
-      </c>
-      <c r="P54" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="25">
-        <v>0</v>
-      </c>
-      <c r="R54" s="25">
-        <v>0</v>
-      </c>
-      <c r="S54" s="25">
-        <v>0</v>
-      </c>
-      <c r="T54" s="25">
-        <v>0</v>
-      </c>
-      <c r="U54" s="25">
-        <v>0</v>
-      </c>
-      <c r="V54" s="25">
-        <v>0</v>
-      </c>
-      <c r="W54" s="25">
-        <v>0</v>
-      </c>
-      <c r="X54" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" s="23" customFormat="1">
-      <c r="A55" s="23" t="s">
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="S54" s="7">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>0</v>
+      </c>
+      <c r="U54" s="7">
+        <v>0</v>
+      </c>
+      <c r="V54" s="7">
+        <v>0</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0</v>
+      </c>
+      <c r="X54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35">
+      <c r="A55" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="7">
         <v>2.84</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="7">
         <v>2.84</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="7">
         <v>2.84</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="7">
         <v>2.84</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I55" s="7">
         <v>2.84</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="7">
         <v>2.84</v>
       </c>
-      <c r="K55" s="25">
+      <c r="K55" s="7">
         <v>2.84</v>
       </c>
-      <c r="L55" s="25">
+      <c r="L55" s="7">
         <v>2.84</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M55" s="7">
         <v>2.84</v>
       </c>
-      <c r="N55" s="25">
+      <c r="N55" s="7">
         <v>2.84</v>
       </c>
-      <c r="O55" s="25">
+      <c r="O55" s="7">
         <v>2.84</v>
       </c>
-      <c r="P55" s="25">
+      <c r="P55" s="7">
         <v>2.84</v>
       </c>
-      <c r="Q55" s="25">
+      <c r="Q55" s="7">
         <v>2.84</v>
       </c>
-      <c r="R55" s="25">
+      <c r="R55" s="7">
         <v>2.84</v>
       </c>
-      <c r="S55" s="25">
+      <c r="S55" s="7">
         <v>2.84</v>
       </c>
-      <c r="T55" s="25">
+      <c r="T55" s="7">
         <v>2.84</v>
       </c>
-      <c r="U55" s="25">
+      <c r="U55" s="7">
         <v>2.84</v>
       </c>
-      <c r="V55" s="25">
+      <c r="V55" s="7">
         <v>2.84</v>
       </c>
-      <c r="W55" s="25">
+      <c r="W55" s="7">
         <v>2.84</v>
       </c>
-      <c r="X55" s="25">
+      <c r="X55" s="7">
         <v>2.84</v>
       </c>
-      <c r="Y55" s="25">
+      <c r="Y55" s="7">
         <v>2.84</v>
       </c>
-      <c r="Z55" s="25">
+      <c r="Z55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AA55" s="25">
+      <c r="AA55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AB55" s="25">
+      <c r="AB55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AC55" s="25">
+      <c r="AC55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AD55" s="25">
+      <c r="AD55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AE55" s="25">
+      <c r="AE55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AF55" s="25">
+      <c r="AF55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AG55" s="25">
+      <c r="AG55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AH55" s="25">
+      <c r="AH55" s="7">
         <v>2.84</v>
       </c>
-      <c r="AI55" s="25">
+      <c r="AI55" s="7">
         <v>2.84</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="23" customFormat="1">
-      <c r="A56" s="23" t="s">
+    <row r="56" spans="1:35">
+      <c r="A56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="7">
         <v>5</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="7">
         <v>5</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="7">
         <v>5</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="7">
         <v>5</v>
       </c>
-      <c r="I56" s="25">
+      <c r="I56" s="7">
         <v>5</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J56" s="7">
         <v>5</v>
       </c>
-      <c r="K56" s="25">
+      <c r="K56" s="7">
         <v>5</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="7">
         <v>5</v>
       </c>
-      <c r="M56" s="25">
+      <c r="M56" s="7">
         <v>5</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N56" s="7">
         <v>5</v>
       </c>
-      <c r="O56" s="25">
+      <c r="O56" s="7">
         <v>5</v>
       </c>
-      <c r="P56" s="25">
+      <c r="P56" s="7">
         <v>5</v>
       </c>
-      <c r="Q56" s="25">
+      <c r="Q56" s="7">
         <v>5</v>
       </c>
-      <c r="R56" s="25">
+      <c r="R56" s="7">
         <v>5</v>
       </c>
-      <c r="S56" s="25">
+      <c r="S56" s="7">
         <v>5</v>
       </c>
-      <c r="T56" s="25">
+      <c r="T56" s="7">
         <v>5</v>
       </c>
-      <c r="U56" s="25">
+      <c r="U56" s="7">
         <v>5</v>
       </c>
-      <c r="V56" s="25">
+      <c r="V56" s="7">
         <v>5</v>
       </c>
-      <c r="W56" s="25">
+      <c r="W56" s="7">
         <v>5</v>
       </c>
-      <c r="X56" s="25">
+      <c r="X56" s="7">
         <v>5</v>
       </c>
-      <c r="Y56" s="25">
+      <c r="Y56" s="7">
         <v>5</v>
       </c>
-      <c r="Z56" s="25">
+      <c r="Z56" s="7">
         <v>5</v>
       </c>
-      <c r="AA56" s="25">
+      <c r="AA56" s="7">
         <v>5</v>
       </c>
-      <c r="AB56" s="25">
+      <c r="AB56" s="7">
         <v>5</v>
       </c>
-      <c r="AC56" s="25">
+      <c r="AC56" s="7">
         <v>5</v>
       </c>
-      <c r="AD56" s="25">
+      <c r="AD56" s="7">
         <v>5</v>
       </c>
-      <c r="AE56" s="25">
+      <c r="AE56" s="7">
         <v>5</v>
       </c>
-      <c r="AF56" s="25">
+      <c r="AF56" s="7">
         <v>5</v>
       </c>
-      <c r="AG56" s="25">
+      <c r="AG56" s="7">
         <v>5</v>
       </c>
-      <c r="AH56" s="25">
+      <c r="AH56" s="7">
         <v>5</v>
       </c>
-      <c r="AI56" s="25">
+      <c r="AI56" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="23" customFormat="1">
-      <c r="A57" s="23" t="s">
+    <row r="57" spans="1:35">
+      <c r="A57" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="7">
         <v>5</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="7">
         <v>5</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="7">
         <v>5</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H57" s="7">
         <v>5</v>
       </c>
-      <c r="I57" s="25">
+      <c r="I57" s="7">
         <v>5</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="7">
         <v>5</v>
       </c>
-      <c r="K57" s="25">
+      <c r="K57" s="7">
         <v>5</v>
       </c>
-      <c r="L57" s="25">
+      <c r="L57" s="7">
         <v>5</v>
       </c>
-      <c r="M57" s="25">
+      <c r="M57" s="7">
         <v>5</v>
       </c>
-      <c r="N57" s="25">
+      <c r="N57" s="7">
         <v>5</v>
       </c>
-      <c r="O57" s="25">
+      <c r="O57" s="7">
         <v>5</v>
       </c>
-      <c r="P57" s="25">
+      <c r="P57" s="7">
         <v>5</v>
       </c>
-      <c r="Q57" s="25">
+      <c r="Q57" s="7">
         <v>5</v>
       </c>
-      <c r="R57" s="25">
+      <c r="R57" s="7">
         <v>5</v>
       </c>
-      <c r="S57" s="25">
+      <c r="S57" s="7">
         <v>5</v>
       </c>
-      <c r="T57" s="25">
+      <c r="T57" s="7">
         <v>5</v>
       </c>
-      <c r="U57" s="25">
+      <c r="U57" s="7">
         <v>5</v>
       </c>
-      <c r="V57" s="25">
+      <c r="V57" s="7">
         <v>5</v>
       </c>
-      <c r="W57" s="25">
+      <c r="W57" s="7">
         <v>5</v>
       </c>
-      <c r="X57" s="25">
+      <c r="X57" s="7">
         <v>5</v>
       </c>
-      <c r="Y57" s="25">
+      <c r="Y57" s="7">
         <v>5</v>
       </c>
-      <c r="Z57" s="25">
+      <c r="Z57" s="7">
         <v>5</v>
       </c>
-      <c r="AA57" s="25">
+      <c r="AA57" s="7">
         <v>5</v>
       </c>
-      <c r="AB57" s="25">
+      <c r="AB57" s="7">
         <v>5</v>
       </c>
-      <c r="AC57" s="25">
+      <c r="AC57" s="7">
         <v>5</v>
       </c>
-      <c r="AD57" s="25">
+      <c r="AD57" s="7">
         <v>5</v>
       </c>
-      <c r="AE57" s="25">
+      <c r="AE57" s="7">
         <v>5</v>
       </c>
-      <c r="AF57" s="25">
+      <c r="AF57" s="7">
         <v>5</v>
       </c>
-      <c r="AG57" s="25">
+      <c r="AG57" s="7">
         <v>5</v>
       </c>
-      <c r="AH57" s="25">
+      <c r="AH57" s="7">
         <v>5</v>
       </c>
-      <c r="AI57" s="25">
+      <c r="AI57" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="23" customFormat="1">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:35">
+      <c r="A58" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="7">
         <v>2</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="7">
         <v>2</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="7">
         <v>2</v>
       </c>
-      <c r="H58" s="25">
+      <c r="H58" s="7">
         <v>2</v>
       </c>
-      <c r="I58" s="25">
+      <c r="I58" s="7">
         <v>2</v>
       </c>
-      <c r="J58" s="25">
+      <c r="J58" s="7">
         <v>2</v>
       </c>
-      <c r="K58" s="25">
+      <c r="K58" s="7">
         <v>2</v>
       </c>
-      <c r="L58" s="25">
+      <c r="L58" s="7">
         <v>2</v>
       </c>
-      <c r="M58" s="25">
+      <c r="M58" s="7">
         <v>2</v>
       </c>
-      <c r="N58" s="25">
+      <c r="N58" s="7">
         <v>2</v>
       </c>
-      <c r="O58" s="25">
+      <c r="O58" s="7">
         <v>2</v>
       </c>
-      <c r="P58" s="25">
+      <c r="P58" s="7">
         <v>2</v>
       </c>
-      <c r="Q58" s="25">
+      <c r="Q58" s="7">
         <v>2</v>
       </c>
-      <c r="R58" s="25">
+      <c r="R58" s="7">
         <v>2</v>
       </c>
-      <c r="S58" s="25">
+      <c r="S58" s="7">
         <v>2</v>
       </c>
-      <c r="T58" s="25">
+      <c r="T58" s="7">
         <v>2</v>
       </c>
-      <c r="U58" s="25">
+      <c r="U58" s="7">
         <v>2</v>
       </c>
-      <c r="V58" s="25">
+      <c r="V58" s="7">
         <v>2</v>
       </c>
-      <c r="W58" s="25">
+      <c r="W58" s="7">
         <v>2</v>
       </c>
-      <c r="X58" s="25">
+      <c r="X58" s="7">
         <v>2</v>
       </c>
-      <c r="Y58" s="25">
+      <c r="Y58" s="7">
         <v>2</v>
       </c>
-      <c r="Z58" s="25">
+      <c r="Z58" s="7">
         <v>2</v>
       </c>
-      <c r="AA58" s="25">
+      <c r="AA58" s="7">
         <v>2</v>
       </c>
-      <c r="AB58" s="25">
+      <c r="AB58" s="7">
         <v>2</v>
       </c>
-      <c r="AC58" s="25">
+      <c r="AC58" s="7">
         <v>2</v>
       </c>
-      <c r="AD58" s="25">
+      <c r="AD58" s="7">
         <v>2</v>
       </c>
-      <c r="AE58" s="25">
+      <c r="AE58" s="7">
         <v>2</v>
       </c>
-      <c r="AF58" s="25">
+      <c r="AF58" s="7">
         <v>2</v>
       </c>
-      <c r="AG58" s="25">
+      <c r="AG58" s="7">
         <v>2</v>
       </c>
-      <c r="AH58" s="25">
+      <c r="AH58" s="7">
         <v>2</v>
       </c>
-      <c r="AI58" s="25">
+      <c r="AI58" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="23" customFormat="1">
-      <c r="A59" s="23" t="s">
+    <row r="59" spans="1:35">
+      <c r="A59" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="7">
         <v>2</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="7">
         <v>2</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="7">
         <v>2</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="7">
         <v>2</v>
       </c>
-      <c r="I59" s="25">
+      <c r="I59" s="7">
         <v>2</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J59" s="7">
         <v>2</v>
       </c>
-      <c r="K59" s="25">
+      <c r="K59" s="7">
         <v>2</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L59" s="7">
         <v>2</v>
       </c>
-      <c r="M59" s="25">
+      <c r="M59" s="7">
         <v>2</v>
       </c>
-      <c r="N59" s="25">
+      <c r="N59" s="7">
         <v>2</v>
       </c>
-      <c r="O59" s="25">
+      <c r="O59" s="7">
         <v>2</v>
       </c>
-      <c r="P59" s="25">
+      <c r="P59" s="7">
         <v>2</v>
       </c>
-      <c r="Q59" s="25">
+      <c r="Q59" s="7">
         <v>2</v>
       </c>
-      <c r="R59" s="25">
+      <c r="R59" s="7">
         <v>2</v>
       </c>
-      <c r="S59" s="25">
+      <c r="S59" s="7">
         <v>2</v>
       </c>
-      <c r="T59" s="25">
+      <c r="T59" s="7">
         <v>2</v>
       </c>
-      <c r="U59" s="25">
+      <c r="U59" s="7">
         <v>2</v>
       </c>
-      <c r="V59" s="25">
+      <c r="V59" s="7">
         <v>2</v>
       </c>
-      <c r="W59" s="25">
+      <c r="W59" s="7">
         <v>2</v>
       </c>
-      <c r="X59" s="25">
+      <c r="X59" s="7">
         <v>2</v>
       </c>
-      <c r="Y59" s="25">
+      <c r="Y59" s="7">
         <v>2</v>
       </c>
-      <c r="Z59" s="25">
+      <c r="Z59" s="7">
         <v>2</v>
       </c>
-      <c r="AA59" s="25">
+      <c r="AA59" s="7">
         <v>2</v>
       </c>
-      <c r="AB59" s="25">
+      <c r="AB59" s="7">
         <v>2</v>
       </c>
-      <c r="AC59" s="25">
+      <c r="AC59" s="7">
         <v>2</v>
       </c>
-      <c r="AD59" s="25">
+      <c r="AD59" s="7">
         <v>2</v>
       </c>
-      <c r="AE59" s="25">
+      <c r="AE59" s="7">
         <v>2</v>
       </c>
-      <c r="AF59" s="25">
+      <c r="AF59" s="7">
         <v>2</v>
       </c>
-      <c r="AG59" s="25">
+      <c r="AG59" s="7">
         <v>2</v>
       </c>
-      <c r="AH59" s="25">
+      <c r="AH59" s="7">
         <v>2</v>
       </c>
-      <c r="AI59" s="25">
+      <c r="AI59" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="23" customFormat="1">
-      <c r="A60" s="23" t="s">
+    <row r="60" spans="1:35">
+      <c r="A60" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="7">
         <v>2</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="7">
         <v>2</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="7">
         <v>2</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="7">
         <v>2</v>
       </c>
-      <c r="I60" s="25">
+      <c r="I60" s="7">
         <v>2</v>
       </c>
-      <c r="J60" s="25">
+      <c r="J60" s="7">
         <v>2</v>
       </c>
-      <c r="K60" s="25">
+      <c r="K60" s="7">
         <v>2</v>
       </c>
-      <c r="L60" s="25">
+      <c r="L60" s="7">
         <v>2</v>
       </c>
-      <c r="M60" s="25">
+      <c r="M60" s="7">
         <v>2</v>
       </c>
-      <c r="N60" s="25">
+      <c r="N60" s="7">
         <v>2</v>
       </c>
-      <c r="O60" s="25">
+      <c r="O60" s="7">
         <v>2</v>
       </c>
-      <c r="P60" s="25">
+      <c r="P60" s="7">
         <v>2</v>
       </c>
-      <c r="Q60" s="25">
+      <c r="Q60" s="7">
         <v>2</v>
       </c>
-      <c r="R60" s="25">
+      <c r="R60" s="7">
         <v>2</v>
       </c>
-      <c r="S60" s="25">
+      <c r="S60" s="7">
         <v>2</v>
       </c>
-      <c r="T60" s="25">
+      <c r="T60" s="7">
         <v>2</v>
       </c>
-      <c r="U60" s="25">
+      <c r="U60" s="7">
         <v>2</v>
       </c>
-      <c r="V60" s="25">
+      <c r="V60" s="7">
         <v>2</v>
       </c>
-      <c r="W60" s="25">
+      <c r="W60" s="7">
         <v>2</v>
       </c>
-      <c r="X60" s="25">
+      <c r="X60" s="7">
         <v>2</v>
       </c>
-      <c r="Y60" s="25">
+      <c r="Y60" s="7">
         <v>2</v>
       </c>
-      <c r="Z60" s="25">
+      <c r="Z60" s="7">
         <v>2</v>
       </c>
-      <c r="AA60" s="25">
+      <c r="AA60" s="7">
         <v>2</v>
       </c>
-      <c r="AB60" s="25">
+      <c r="AB60" s="7">
         <v>2</v>
       </c>
-      <c r="AC60" s="25">
+      <c r="AC60" s="7">
         <v>2</v>
       </c>
-      <c r="AD60" s="25">
+      <c r="AD60" s="7">
         <v>2</v>
       </c>
-      <c r="AE60" s="25">
+      <c r="AE60" s="7">
         <v>2</v>
       </c>
-      <c r="AF60" s="25">
+      <c r="AF60" s="7">
         <v>2</v>
       </c>
-      <c r="AG60" s="25">
+      <c r="AG60" s="7">
         <v>2</v>
       </c>
-      <c r="AH60" s="25">
+      <c r="AH60" s="7">
         <v>2</v>
       </c>
-      <c r="AI60" s="25">
+      <c r="AI60" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:35" s="23" customFormat="1">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:35">
+      <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="25">
-        <v>0</v>
-      </c>
-      <c r="F61" s="25">
-        <v>0</v>
-      </c>
-      <c r="G61" s="25">
-        <v>0</v>
-      </c>
-      <c r="H61" s="25">
-        <v>0</v>
-      </c>
-      <c r="I61" s="25">
-        <v>0</v>
-      </c>
-      <c r="J61" s="25">
-        <v>0</v>
-      </c>
-      <c r="K61" s="25">
-        <v>0</v>
-      </c>
-      <c r="L61" s="25">
-        <v>0</v>
-      </c>
-      <c r="M61" s="25">
-        <v>0</v>
-      </c>
-      <c r="N61" s="25">
-        <v>0</v>
-      </c>
-      <c r="O61" s="25">
-        <v>0</v>
-      </c>
-      <c r="P61" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="25">
-        <v>0</v>
-      </c>
-      <c r="R61" s="25">
-        <v>0</v>
-      </c>
-      <c r="S61" s="25">
-        <v>0</v>
-      </c>
-      <c r="T61" s="25">
-        <v>0</v>
-      </c>
-      <c r="U61" s="25">
-        <v>0</v>
-      </c>
-      <c r="V61" s="25">
-        <v>0</v>
-      </c>
-      <c r="W61" s="25">
-        <v>0</v>
-      </c>
-      <c r="X61" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" s="23" customFormat="1">
-      <c r="A62" s="23" t="s">
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="7">
+        <v>0</v>
+      </c>
+      <c r="T61" s="7">
+        <v>0</v>
+      </c>
+      <c r="U61" s="7">
+        <v>0</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+      <c r="W61" s="7">
+        <v>0</v>
+      </c>
+      <c r="X61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="25">
-        <v>0</v>
-      </c>
-      <c r="F62" s="25">
-        <v>0</v>
-      </c>
-      <c r="G62" s="25">
-        <v>0</v>
-      </c>
-      <c r="H62" s="25">
-        <v>0</v>
-      </c>
-      <c r="I62" s="25">
-        <v>0</v>
-      </c>
-      <c r="J62" s="25">
-        <v>0</v>
-      </c>
-      <c r="K62" s="25">
-        <v>0</v>
-      </c>
-      <c r="L62" s="25">
-        <v>0</v>
-      </c>
-      <c r="M62" s="25">
-        <v>0</v>
-      </c>
-      <c r="N62" s="25">
-        <v>0</v>
-      </c>
-      <c r="O62" s="25">
-        <v>0</v>
-      </c>
-      <c r="P62" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="25">
-        <v>0</v>
-      </c>
-      <c r="R62" s="25">
-        <v>0</v>
-      </c>
-      <c r="S62" s="25">
-        <v>0</v>
-      </c>
-      <c r="T62" s="25">
-        <v>0</v>
-      </c>
-      <c r="U62" s="25">
-        <v>0</v>
-      </c>
-      <c r="V62" s="25">
-        <v>0</v>
-      </c>
-      <c r="W62" s="25">
-        <v>0</v>
-      </c>
-      <c r="X62" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" s="23" customFormat="1">
-      <c r="A63" s="23" t="s">
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="7">
+        <v>0</v>
+      </c>
+      <c r="T62" s="7">
+        <v>0</v>
+      </c>
+      <c r="U62" s="7">
+        <v>0</v>
+      </c>
+      <c r="V62" s="7">
+        <v>0</v>
+      </c>
+      <c r="W62" s="7">
+        <v>0</v>
+      </c>
+      <c r="X62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="A63" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="25">
-        <v>0</v>
-      </c>
-      <c r="F63" s="25">
-        <v>0</v>
-      </c>
-      <c r="G63" s="25">
-        <v>0</v>
-      </c>
-      <c r="H63" s="25">
-        <v>0</v>
-      </c>
-      <c r="I63" s="25">
-        <v>0</v>
-      </c>
-      <c r="J63" s="25">
-        <v>0</v>
-      </c>
-      <c r="K63" s="25">
-        <v>0</v>
-      </c>
-      <c r="L63" s="25">
-        <v>0</v>
-      </c>
-      <c r="M63" s="25">
-        <v>0</v>
-      </c>
-      <c r="N63" s="25">
-        <v>0</v>
-      </c>
-      <c r="O63" s="25">
-        <v>0</v>
-      </c>
-      <c r="P63" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="25">
-        <v>0</v>
-      </c>
-      <c r="R63" s="25">
-        <v>0</v>
-      </c>
-      <c r="S63" s="25">
-        <v>0</v>
-      </c>
-      <c r="T63" s="25">
-        <v>0</v>
-      </c>
-      <c r="U63" s="25">
-        <v>0</v>
-      </c>
-      <c r="V63" s="25">
-        <v>0</v>
-      </c>
-      <c r="W63" s="25">
-        <v>0</v>
-      </c>
-      <c r="X63" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH63" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" s="23" customFormat="1">
-      <c r="A64" s="23" t="s">
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="7">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7">
+        <v>0</v>
+      </c>
+      <c r="U63" s="7">
+        <v>0</v>
+      </c>
+      <c r="V63" s="7">
+        <v>0</v>
+      </c>
+      <c r="W63" s="7">
+        <v>0</v>
+      </c>
+      <c r="X63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="A64" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H64" s="25">
+      <c r="H64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="I64" s="25">
+      <c r="I64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="J64" s="25">
+      <c r="J64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="K64" s="25">
+      <c r="K64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="L64" s="25">
+      <c r="L64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="M64" s="25">
+      <c r="M64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="N64" s="25">
+      <c r="N64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="O64" s="25">
+      <c r="O64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="P64" s="25">
+      <c r="P64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="Q64" s="25">
+      <c r="Q64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="R64" s="25">
+      <c r="R64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="S64" s="25">
+      <c r="S64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="T64" s="25">
+      <c r="T64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="U64" s="25">
+      <c r="U64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="V64" s="25">
+      <c r="V64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="W64" s="25">
+      <c r="W64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="X64" s="25">
+      <c r="X64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="Y64" s="25">
+      <c r="Y64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="Z64" s="25">
+      <c r="Z64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AA64" s="25">
+      <c r="AA64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AB64" s="25">
+      <c r="AB64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AC64" s="25">
+      <c r="AC64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AD64" s="25">
+      <c r="AD64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AE64" s="25">
+      <c r="AE64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AF64" s="25">
+      <c r="AF64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AG64" s="25">
+      <c r="AG64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AH64" s="25">
+      <c r="AH64" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AI64" s="25">
+      <c r="AI64" s="7">
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:35" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="23" t="s">
+    <row r="65" spans="1:35" ht="12" customHeight="1">
+      <c r="A65" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="7">
         <f>2525/942*47/40*2</f>
         <v>6.2990976645435248</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F65" s="7">
         <f t="shared" ref="F65:AI65" si="0">2525/942*47/40*2</f>
         <v>6.2990976645435248</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="H65" s="25">
+      <c r="H65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="I65" s="25">
+      <c r="I65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="J65" s="25">
+      <c r="J65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="K65" s="25">
+      <c r="K65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="L65" s="25">
+      <c r="L65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="M65" s="25">
+      <c r="M65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="N65" s="25">
+      <c r="N65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="O65" s="25">
+      <c r="O65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="P65" s="25">
+      <c r="P65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="Q65" s="25">
+      <c r="Q65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="R65" s="25">
+      <c r="R65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="S65" s="25">
+      <c r="S65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="T65" s="25">
+      <c r="T65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="U65" s="25">
+      <c r="U65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="V65" s="25">
+      <c r="V65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="W65" s="25">
+      <c r="W65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="X65" s="25">
+      <c r="X65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="Y65" s="25">
+      <c r="Y65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="Z65" s="25">
+      <c r="Z65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AA65" s="25">
+      <c r="AA65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AB65" s="25">
+      <c r="AB65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AC65" s="25">
+      <c r="AC65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AD65" s="25">
+      <c r="AD65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AE65" s="25">
+      <c r="AE65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AF65" s="25">
+      <c r="AF65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AG65" s="25">
+      <c r="AG65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AH65" s="25">
+      <c r="AH65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
-      <c r="AI65" s="25">
+      <c r="AI65" s="7">
         <f t="shared" si="0"/>
         <v>6.2990976645435248</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="23" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A66" s="23" t="s">
+    <row r="66" spans="1:35" ht="11.25" customHeight="1">
+      <c r="A66" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="7">
         <f>2525/942*47/40*5</f>
         <v>15.747744161358812</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="7">
         <f t="shared" ref="E66:AI68" si="1">2525/942*47/40*5</f>
         <v>15.747744161358812</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="I66" s="25">
+      <c r="I66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="J66" s="25">
+      <c r="J66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="K66" s="25">
+      <c r="K66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="L66" s="25">
+      <c r="L66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="M66" s="25">
+      <c r="M66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="N66" s="25">
+      <c r="N66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="O66" s="25">
+      <c r="O66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="P66" s="25">
+      <c r="P66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="Q66" s="25">
+      <c r="Q66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="R66" s="25">
+      <c r="R66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="S66" s="25">
+      <c r="S66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="T66" s="25">
+      <c r="T66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="U66" s="25">
+      <c r="U66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="V66" s="25">
+      <c r="V66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="W66" s="25">
+      <c r="W66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="X66" s="25">
+      <c r="X66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="Y66" s="25">
+      <c r="Y66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="Z66" s="25">
+      <c r="Z66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AA66" s="25">
+      <c r="AA66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AB66" s="25">
+      <c r="AB66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AC66" s="25">
+      <c r="AC66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AD66" s="25">
+      <c r="AD66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AE66" s="25">
+      <c r="AE66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AF66" s="25">
+      <c r="AF66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AG66" s="25">
+      <c r="AG66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AH66" s="25">
+      <c r="AH66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AI66" s="25">
+      <c r="AI66" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="23" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A67" s="23" t="s">
+    <row r="67" spans="1:35" ht="11.25" customHeight="1">
+      <c r="A67" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="I67" s="25">
+      <c r="I67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="J67" s="25">
+      <c r="J67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="K67" s="25">
+      <c r="K67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="L67" s="25">
+      <c r="L67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="M67" s="25">
+      <c r="M67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="N67" s="25">
+      <c r="N67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="O67" s="25">
+      <c r="O67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="P67" s="25">
+      <c r="P67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="Q67" s="25">
+      <c r="Q67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="R67" s="25">
+      <c r="R67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="S67" s="25">
+      <c r="S67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="T67" s="25">
+      <c r="T67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="U67" s="25">
+      <c r="U67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="V67" s="25">
+      <c r="V67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="W67" s="25">
+      <c r="W67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="X67" s="25">
+      <c r="X67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="Y67" s="25">
+      <c r="Y67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="Z67" s="25">
+      <c r="Z67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AA67" s="25">
+      <c r="AA67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AB67" s="25">
+      <c r="AB67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AC67" s="25">
+      <c r="AC67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AD67" s="25">
+      <c r="AD67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AE67" s="25">
+      <c r="AE67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AF67" s="25">
+      <c r="AF67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AG67" s="25">
+      <c r="AG67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AH67" s="25">
+      <c r="AH67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>
-      <c r="AI67" s="25">
+      <c r="AI67" s="7">
         <f t="shared" si="1"/>
         <v>15.747744161358812</v>
       </c>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6593EFC2-E83F-407D-8311-6861052D6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E16C21-4868-405C-B630-19C824A63E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="382">
   <si>
     <t>tech</t>
   </si>
@@ -1224,6 +1224,12 @@
   <si>
     <t>Steam Turbine -Black Liquor</t>
   </si>
+  <si>
+    <t>BIOMASS_Dummy_Aggregator</t>
+  </si>
+  <si>
+    <t>Dummy technology used to limit biomass capacity</t>
+  </si>
 </sst>
 </file>
 
@@ -2271,7 +2277,7 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2320,6 +2326,9 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2328,13 +2337,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="345">
     <cellStyle name="20% - Accent1" xfId="322" builtinId="30" customBuiltin="1"/>
@@ -2987,11 +2989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3019,11 +3021,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="26" customFormat="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
@@ -3032,7 +3034,7 @@
       <c r="D2" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
       <c r="A3" t="s">
@@ -3723,6 +3725,20 @@
       </c>
       <c r="D49" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4223,18 +4239,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -5379,11 +5395,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32AD897-F683-4767-9F8A-BBAC538730FF}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5792,6 +5808,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5800,11 +5830,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C008AD2-9FC6-4B50-8E5B-D9A0AF2799B1}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6697,6 +6727,20 @@
       </c>
       <c r="E52" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>380</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -11076,7 +11120,7 @@
   <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K19" sqref="A16:K19"/>
     </sheetView>
   </sheetViews>
@@ -16556,11 +16600,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB1107-551A-4401-A108-C4996FB8D590}">
-  <dimension ref="A1:AI66"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -23635,6 +23679,113 @@
         <v>0</v>
       </c>
     </row>
+    <row r="67" spans="1:35">
+      <c r="A67" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0</v>
+      </c>
+      <c r="H67" s="20">
+        <v>0</v>
+      </c>
+      <c r="I67" s="20">
+        <v>0</v>
+      </c>
+      <c r="J67" s="20">
+        <v>0</v>
+      </c>
+      <c r="K67" s="20">
+        <v>0</v>
+      </c>
+      <c r="L67" s="20">
+        <v>0</v>
+      </c>
+      <c r="M67" s="20">
+        <v>0</v>
+      </c>
+      <c r="N67" s="20">
+        <v>0</v>
+      </c>
+      <c r="O67" s="20">
+        <v>0</v>
+      </c>
+      <c r="P67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>0</v>
+      </c>
+      <c r="R67" s="20">
+        <v>0</v>
+      </c>
+      <c r="S67" s="20">
+        <v>0</v>
+      </c>
+      <c r="T67" s="20">
+        <v>0</v>
+      </c>
+      <c r="U67" s="20">
+        <v>0</v>
+      </c>
+      <c r="V67" s="20">
+        <v>0</v>
+      </c>
+      <c r="W67" s="20">
+        <v>0</v>
+      </c>
+      <c r="X67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23644,11 +23795,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD5D24F-D6D8-45F0-9B18-7F7BBE5186DB}">
-  <dimension ref="A1:AI91"/>
+  <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -33398,6 +33549,113 @@
         <v>0</v>
       </c>
     </row>
+    <row r="92" spans="1:35">
+      <c r="A92" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E92" s="20">
+        <v>0</v>
+      </c>
+      <c r="F92" s="20">
+        <v>0</v>
+      </c>
+      <c r="G92" s="20">
+        <v>0</v>
+      </c>
+      <c r="H92" s="20">
+        <v>0</v>
+      </c>
+      <c r="I92" s="20">
+        <v>0</v>
+      </c>
+      <c r="J92" s="20">
+        <v>0</v>
+      </c>
+      <c r="K92" s="20">
+        <v>0</v>
+      </c>
+      <c r="L92" s="20">
+        <v>0</v>
+      </c>
+      <c r="M92" s="20">
+        <v>0</v>
+      </c>
+      <c r="N92" s="20">
+        <v>0</v>
+      </c>
+      <c r="O92" s="20">
+        <v>0</v>
+      </c>
+      <c r="P92" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="20">
+        <v>0</v>
+      </c>
+      <c r="R92" s="20">
+        <v>0</v>
+      </c>
+      <c r="S92" s="20">
+        <v>0</v>
+      </c>
+      <c r="T92" s="20">
+        <v>0</v>
+      </c>
+      <c r="U92" s="20">
+        <v>0</v>
+      </c>
+      <c r="V92" s="20">
+        <v>0</v>
+      </c>
+      <c r="W92" s="20">
+        <v>0</v>
+      </c>
+      <c r="X92" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33407,18 +33665,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
-  <dimension ref="A1:AI93"/>
+  <dimension ref="A1:AI94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15" style="16" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="16" customWidth="1"/>
     <col min="5" max="35" width="6.42578125" style="20" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="16"/>
@@ -43465,6 +43723,113 @@
         <v>0</v>
       </c>
       <c r="AI93" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35">
+      <c r="A94" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" s="20">
+        <v>0</v>
+      </c>
+      <c r="F94" s="20">
+        <v>0</v>
+      </c>
+      <c r="G94" s="20">
+        <v>0</v>
+      </c>
+      <c r="H94" s="20">
+        <v>0</v>
+      </c>
+      <c r="I94" s="20">
+        <v>0</v>
+      </c>
+      <c r="J94" s="20">
+        <v>0</v>
+      </c>
+      <c r="K94" s="20">
+        <v>0</v>
+      </c>
+      <c r="L94" s="20">
+        <v>0</v>
+      </c>
+      <c r="M94" s="20">
+        <v>0</v>
+      </c>
+      <c r="N94" s="20">
+        <v>0</v>
+      </c>
+      <c r="O94" s="20">
+        <v>0</v>
+      </c>
+      <c r="P94" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="20">
+        <v>0</v>
+      </c>
+      <c r="R94" s="20">
+        <v>0</v>
+      </c>
+      <c r="S94" s="20">
+        <v>0</v>
+      </c>
+      <c r="T94" s="20">
+        <v>0</v>
+      </c>
+      <c r="U94" s="20">
+        <v>0</v>
+      </c>
+      <c r="V94" s="20">
+        <v>0</v>
+      </c>
+      <c r="W94" s="20">
+        <v>0</v>
+      </c>
+      <c r="X94" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="20">
         <v>0</v>
       </c>
     </row>
@@ -43480,7 +43845,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD3F3D9-6443-4558-9305-59426C2D5098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7C9515-65F6-45F5-A9E7-4553FD11F450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -3106,8 +3106,8 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5531,7 +5531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F425B7AA-21D1-411D-A9AF-54EA873F398D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -17226,9 +17226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB1107-551A-4401-A108-C4996FB8D590}">
   <dimension ref="A1:AI80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI80" sqref="A80:AI80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -17236,7 +17236,7 @@
     <col min="1" max="1" width="12.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="16" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="16" customWidth="1"/>
     <col min="5" max="35" width="6.42578125" style="19" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="16"/>
   </cols>
@@ -36893,8 +36893,8 @@
   <dimension ref="A1:AI106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107:XFD107"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7C9515-65F6-45F5-A9E7-4553FD11F450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468F4C08-3B5B-4D00-8F32-FD7C0C79624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="technologies" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="408">
   <si>
     <t>tech</t>
   </si>
@@ -1231,18 +1231,6 @@
     <t>Fuel Technology for Coal</t>
   </si>
   <si>
-    <t>FT_WindOF</t>
-  </si>
-  <si>
-    <t>Fuel Technology for Wind Offshore</t>
-  </si>
-  <si>
-    <t>FT_WindON</t>
-  </si>
-  <si>
-    <t>Fuel Technology for Wind Onshore</t>
-  </si>
-  <si>
     <t>FT_Petroleum</t>
   </si>
   <si>
@@ -1253,30 +1241,6 @@
   </si>
   <si>
     <t>Fuel Technology for Nuclear</t>
-  </si>
-  <si>
-    <t>FT_Solar_Res</t>
-  </si>
-  <si>
-    <t>FT_Solar_Com</t>
-  </si>
-  <si>
-    <t>FT_Solar_Utility</t>
-  </si>
-  <si>
-    <t>Fuel Technology For Solar Residential</t>
-  </si>
-  <si>
-    <t>Fuel Technology For Solar Commercial</t>
-  </si>
-  <si>
-    <t>Fuel Technology For Solar Utility</t>
-  </si>
-  <si>
-    <t>FT_Hydro</t>
-  </si>
-  <si>
-    <t>Fuel Technology For Solar Hydro</t>
   </si>
   <si>
     <t>CO2_Storage</t>
@@ -3103,11 +3067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3829,7 +3793,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -3838,7 +3802,7 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3913,7 +3877,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -3922,12 +3886,12 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -3937,90 +3901,6 @@
       </c>
       <c r="D56" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>391</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>392</v>
-      </c>
-      <c r="B58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>396</v>
-      </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>398</v>
-      </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>413</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>415</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5677,11 +5557,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32AD897-F683-4767-9F8A-BBAC538730FF}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6078,7 +5958,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6162,7 +6042,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6176,7 +6056,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6185,90 +6065,6 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>391</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>392</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>396</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>398</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>413</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>415</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
         <v>1</v>
       </c>
     </row>
@@ -6280,11 +6076,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C008AD2-9FC6-4B50-8E5B-D9A0AF2799B1}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7164,7 +6960,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B52">
         <v>100</v>
@@ -7173,7 +6969,7 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E52" t="s">
         <v>324</v>
@@ -7190,7 +6986,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7204,7 +7000,7 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7218,7 +7014,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -7232,7 +7028,7 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -7246,124 +7042,40 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>400</v>
+        <v>404</v>
+      </c>
+      <c r="E58" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C59">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>391</v>
-      </c>
-      <c r="B60">
-        <v>100</v>
-      </c>
-      <c r="C60">
-        <v>20</v>
-      </c>
-      <c r="D60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>392</v>
-      </c>
-      <c r="B61">
-        <v>100</v>
-      </c>
-      <c r="C61">
-        <v>20</v>
-      </c>
-      <c r="D61" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>396</v>
-      </c>
-      <c r="B62">
-        <v>100</v>
-      </c>
-      <c r="C62">
-        <v>20</v>
-      </c>
-      <c r="D62" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>398</v>
-      </c>
-      <c r="B63">
-        <v>100</v>
-      </c>
-      <c r="C63">
-        <v>20</v>
-      </c>
-      <c r="D63" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>413</v>
-      </c>
-      <c r="B64">
-        <v>50</v>
-      </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
-      <c r="D64" t="s">
-        <v>416</v>
-      </c>
-      <c r="E64" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>415</v>
-      </c>
-      <c r="B65">
-        <v>50</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65" t="s">
-        <v>417</v>
-      </c>
-      <c r="E65" t="s">
+        <v>405</v>
+      </c>
+      <c r="E59" t="s">
         <v>324</v>
       </c>
     </row>
@@ -17224,11 +16936,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB1107-551A-4401-A108-C4996FB8D590}">
-  <dimension ref="A1:AI80"/>
+  <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -24201,13 +23913,13 @@
         <v>85</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>375</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E66" s="19">
         <v>0</v>
@@ -24314,7 +24026,7 @@
         <v>375</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E67" s="19">
         <v>0</v>
@@ -24421,7 +24133,7 @@
         <v>375</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E68" s="19">
         <v>0</v>
@@ -24528,7 +24240,7 @@
         <v>375</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E69" s="19">
         <v>0</v>
@@ -24635,7 +24347,7 @@
         <v>375</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E70" s="19">
         <v>0</v>
@@ -24742,7 +24454,7 @@
         <v>375</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E71" s="19">
         <v>0</v>
@@ -24843,106 +24555,106 @@
         <v>85</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>375</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E72" s="19">
-        <v>0</v>
+        <v>4416.1586545896225</v>
       </c>
       <c r="F72" s="19">
-        <v>0</v>
+        <v>4388.1768458064125</v>
       </c>
       <c r="G72" s="19">
-        <v>0</v>
+        <v>4360.1950370232025</v>
       </c>
       <c r="H72" s="19">
-        <v>0</v>
+        <v>4332.2132282399934</v>
       </c>
       <c r="I72" s="19">
-        <v>0</v>
+        <v>4304.5136584669035</v>
       </c>
       <c r="J72" s="19">
-        <v>0</v>
+        <v>4276.2086370074821</v>
       </c>
       <c r="K72" s="19">
-        <v>0</v>
+        <v>4258.3489285999976</v>
       </c>
       <c r="L72" s="19">
-        <v>0</v>
+        <v>4240.3817525639051</v>
       </c>
       <c r="M72" s="19">
-        <v>0</v>
+        <v>4222.3099174482222</v>
       </c>
       <c r="N72" s="19">
-        <v>0</v>
+        <v>4204.1303924733184</v>
       </c>
       <c r="O72" s="19">
-        <v>0</v>
+        <v>4185.8438263968492</v>
       </c>
       <c r="P72" s="19">
-        <v>0</v>
+        <v>4157.8280890731303</v>
       </c>
       <c r="Q72" s="19">
-        <v>0</v>
+        <v>4129.8125183607854</v>
       </c>
       <c r="R72" s="19">
-        <v>0</v>
+        <v>4101.7998511701189</v>
       </c>
       <c r="S72" s="19">
-        <v>0</v>
+        <v>4073.7818888610846</v>
       </c>
       <c r="T72" s="19">
-        <v>0</v>
+        <v>4045.7676234324272</v>
       </c>
       <c r="U72" s="19">
-        <v>0</v>
+        <v>4017.7526382967721</v>
       </c>
       <c r="V72" s="19">
-        <v>0</v>
+        <v>3989.7399885775626</v>
       </c>
       <c r="W72" s="19">
-        <v>0</v>
+        <v>3961.7249402736543</v>
       </c>
       <c r="X72" s="19">
-        <v>0</v>
+        <v>3933.7104772183488</v>
       </c>
       <c r="Y72" s="19">
-        <v>0</v>
+        <v>3905.6966508737169</v>
       </c>
       <c r="Z72" s="19">
-        <v>0</v>
+        <v>3877.6789330066481</v>
       </c>
       <c r="AA72" s="19">
-        <v>0</v>
+        <v>3849.6641876106451</v>
       </c>
       <c r="AB72" s="19">
-        <v>0</v>
+        <v>3821.6493188199893</v>
       </c>
       <c r="AC72" s="19">
-        <v>0</v>
+        <v>3793.6352124558844</v>
       </c>
       <c r="AD72" s="19">
-        <v>0</v>
+        <v>3765.6236041294887</v>
       </c>
       <c r="AE72" s="19">
-        <v>0</v>
+        <v>3737.6084841509801</v>
       </c>
       <c r="AF72" s="19">
-        <v>0</v>
+        <v>3709.5933146942721</v>
       </c>
       <c r="AG72" s="19">
-        <v>0</v>
+        <v>3681.5768114034067</v>
       </c>
       <c r="AH72" s="19">
-        <v>0</v>
+        <v>3653.5622867226039</v>
       </c>
       <c r="AI72" s="19">
-        <v>0</v>
+        <v>3625.5477288005723</v>
       </c>
     </row>
     <row r="73" spans="1:35">
@@ -24950,782 +24662,140 @@
         <v>85</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>375</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E73" s="19">
-        <v>0</v>
+        <v>5580</v>
       </c>
       <c r="F73" s="19">
-        <v>0</v>
+        <v>5563</v>
       </c>
       <c r="G73" s="19">
-        <v>0</v>
+        <v>5546</v>
       </c>
       <c r="H73" s="19">
-        <v>0</v>
+        <v>5529</v>
       </c>
       <c r="I73" s="19">
-        <v>0</v>
+        <v>5512</v>
       </c>
       <c r="J73" s="19">
-        <v>0</v>
+        <v>5495</v>
       </c>
       <c r="K73" s="19">
-        <v>0</v>
+        <v>5478</v>
       </c>
       <c r="L73" s="19">
-        <v>0</v>
+        <v>5461</v>
       </c>
       <c r="M73" s="19">
-        <v>0</v>
+        <v>5444</v>
       </c>
       <c r="N73" s="19">
-        <v>0</v>
+        <v>5427</v>
       </c>
       <c r="O73" s="19">
-        <v>0</v>
+        <v>5410</v>
       </c>
       <c r="P73" s="19">
-        <v>0</v>
+        <v>5394.5</v>
       </c>
       <c r="Q73" s="19">
-        <v>0</v>
+        <v>5379</v>
       </c>
       <c r="R73" s="19">
-        <v>0</v>
+        <v>5363.5</v>
       </c>
       <c r="S73" s="19">
-        <v>0</v>
+        <v>5348</v>
       </c>
       <c r="T73" s="19">
-        <v>0</v>
+        <v>5332.5</v>
       </c>
       <c r="U73" s="19">
-        <v>0</v>
+        <v>5317</v>
       </c>
       <c r="V73" s="19">
-        <v>0</v>
+        <v>5301.5</v>
       </c>
       <c r="W73" s="19">
-        <v>0</v>
+        <v>5286</v>
       </c>
       <c r="X73" s="19">
-        <v>0</v>
+        <v>5270.5</v>
       </c>
       <c r="Y73" s="19">
-        <v>0</v>
+        <v>5255</v>
       </c>
       <c r="Z73" s="19">
-        <v>0</v>
+        <v>5239.5</v>
       </c>
       <c r="AA73" s="19">
-        <v>0</v>
+        <v>5224</v>
       </c>
       <c r="AB73" s="19">
-        <v>0</v>
+        <v>5208.5</v>
       </c>
       <c r="AC73" s="19">
-        <v>0</v>
+        <v>5193</v>
       </c>
       <c r="AD73" s="19">
-        <v>0</v>
+        <v>5177.5</v>
       </c>
       <c r="AE73" s="19">
-        <v>0</v>
+        <v>5162</v>
       </c>
       <c r="AF73" s="19">
-        <v>0</v>
+        <v>5146.5</v>
       </c>
       <c r="AG73" s="19">
-        <v>0</v>
+        <v>5131</v>
       </c>
       <c r="AH73" s="19">
-        <v>0</v>
+        <v>5115.5</v>
       </c>
       <c r="AI73" s="19">
-        <v>0</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="74" spans="1:35">
-      <c r="A74" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E74" s="19">
-        <v>0</v>
-      </c>
-      <c r="F74" s="19">
-        <v>0</v>
-      </c>
-      <c r="G74" s="19">
-        <v>0</v>
-      </c>
-      <c r="H74" s="19">
-        <v>0</v>
-      </c>
-      <c r="I74" s="19">
-        <v>0</v>
-      </c>
-      <c r="J74" s="19">
-        <v>0</v>
-      </c>
-      <c r="K74" s="19">
-        <v>0</v>
-      </c>
-      <c r="L74" s="19">
-        <v>0</v>
-      </c>
-      <c r="M74" s="19">
-        <v>0</v>
-      </c>
-      <c r="N74" s="19">
-        <v>0</v>
-      </c>
-      <c r="O74" s="19">
-        <v>0</v>
-      </c>
-      <c r="P74" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="19">
-        <v>0</v>
-      </c>
-      <c r="R74" s="19">
-        <v>0</v>
-      </c>
-      <c r="S74" s="19">
-        <v>0</v>
-      </c>
-      <c r="T74" s="19">
-        <v>0</v>
-      </c>
-      <c r="U74" s="19">
-        <v>0</v>
-      </c>
-      <c r="V74" s="19">
-        <v>0</v>
-      </c>
-      <c r="W74" s="19">
-        <v>0</v>
-      </c>
-      <c r="X74" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH74" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI74" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35">
-      <c r="A75" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E75" s="19">
-        <v>0</v>
-      </c>
-      <c r="F75" s="19">
-        <v>0</v>
-      </c>
-      <c r="G75" s="19">
-        <v>0</v>
-      </c>
-      <c r="H75" s="19">
-        <v>0</v>
-      </c>
-      <c r="I75" s="19">
-        <v>0</v>
-      </c>
-      <c r="J75" s="19">
-        <v>0</v>
-      </c>
-      <c r="K75" s="19">
-        <v>0</v>
-      </c>
-      <c r="L75" s="19">
-        <v>0</v>
-      </c>
-      <c r="M75" s="19">
-        <v>0</v>
-      </c>
-      <c r="N75" s="19">
-        <v>0</v>
-      </c>
-      <c r="O75" s="19">
-        <v>0</v>
-      </c>
-      <c r="P75" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="19">
-        <v>0</v>
-      </c>
-      <c r="R75" s="19">
-        <v>0</v>
-      </c>
-      <c r="S75" s="19">
-        <v>0</v>
-      </c>
-      <c r="T75" s="19">
-        <v>0</v>
-      </c>
-      <c r="U75" s="19">
-        <v>0</v>
-      </c>
-      <c r="V75" s="19">
-        <v>0</v>
-      </c>
-      <c r="W75" s="19">
-        <v>0</v>
-      </c>
-      <c r="X75" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH75" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35">
-      <c r="A76" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E76" s="19">
-        <v>0</v>
-      </c>
-      <c r="F76" s="19">
-        <v>0</v>
-      </c>
-      <c r="G76" s="19">
-        <v>0</v>
-      </c>
-      <c r="H76" s="19">
-        <v>0</v>
-      </c>
-      <c r="I76" s="19">
-        <v>0</v>
-      </c>
-      <c r="J76" s="19">
-        <v>0</v>
-      </c>
-      <c r="K76" s="19">
-        <v>0</v>
-      </c>
-      <c r="L76" s="19">
-        <v>0</v>
-      </c>
-      <c r="M76" s="19">
-        <v>0</v>
-      </c>
-      <c r="N76" s="19">
-        <v>0</v>
-      </c>
-      <c r="O76" s="19">
-        <v>0</v>
-      </c>
-      <c r="P76" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="19">
-        <v>0</v>
-      </c>
-      <c r="R76" s="19">
-        <v>0</v>
-      </c>
-      <c r="S76" s="19">
-        <v>0</v>
-      </c>
-      <c r="T76" s="19">
-        <v>0</v>
-      </c>
-      <c r="U76" s="19">
-        <v>0</v>
-      </c>
-      <c r="V76" s="19">
-        <v>0</v>
-      </c>
-      <c r="W76" s="19">
-        <v>0</v>
-      </c>
-      <c r="X76" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH76" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35">
-      <c r="A77" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E77" s="19">
-        <v>0</v>
-      </c>
-      <c r="F77" s="19">
-        <v>0</v>
-      </c>
-      <c r="G77" s="19">
-        <v>0</v>
-      </c>
-      <c r="H77" s="19">
-        <v>0</v>
-      </c>
-      <c r="I77" s="19">
-        <v>0</v>
-      </c>
-      <c r="J77" s="19">
-        <v>0</v>
-      </c>
-      <c r="K77" s="19">
-        <v>0</v>
-      </c>
-      <c r="L77" s="19">
-        <v>0</v>
-      </c>
-      <c r="M77" s="19">
-        <v>0</v>
-      </c>
-      <c r="N77" s="19">
-        <v>0</v>
-      </c>
-      <c r="O77" s="19">
-        <v>0</v>
-      </c>
-      <c r="P77" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="19">
-        <v>0</v>
-      </c>
-      <c r="R77" s="19">
-        <v>0</v>
-      </c>
-      <c r="S77" s="19">
-        <v>0</v>
-      </c>
-      <c r="T77" s="19">
-        <v>0</v>
-      </c>
-      <c r="U77" s="19">
-        <v>0</v>
-      </c>
-      <c r="V77" s="19">
-        <v>0</v>
-      </c>
-      <c r="W77" s="19">
-        <v>0</v>
-      </c>
-      <c r="X77" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH77" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI77" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35">
-      <c r="A78" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E78" s="19">
-        <v>4416.1586545896225</v>
-      </c>
-      <c r="F78" s="19">
-        <v>4388.1768458064125</v>
-      </c>
-      <c r="G78" s="19">
-        <v>4360.1950370232025</v>
-      </c>
-      <c r="H78" s="19">
-        <v>4332.2132282399934</v>
-      </c>
-      <c r="I78" s="19">
-        <v>4304.5136584669035</v>
-      </c>
-      <c r="J78" s="19">
-        <v>4276.2086370074821</v>
-      </c>
-      <c r="K78" s="19">
-        <v>4258.3489285999976</v>
-      </c>
-      <c r="L78" s="19">
-        <v>4240.3817525639051</v>
-      </c>
-      <c r="M78" s="19">
-        <v>4222.3099174482222</v>
-      </c>
-      <c r="N78" s="19">
-        <v>4204.1303924733184</v>
-      </c>
-      <c r="O78" s="19">
-        <v>4185.8438263968492</v>
-      </c>
-      <c r="P78" s="19">
-        <v>4157.8280890731303</v>
-      </c>
-      <c r="Q78" s="19">
-        <v>4129.8125183607854</v>
-      </c>
-      <c r="R78" s="19">
-        <v>4101.7998511701189</v>
-      </c>
-      <c r="S78" s="19">
-        <v>4073.7818888610846</v>
-      </c>
-      <c r="T78" s="19">
-        <v>4045.7676234324272</v>
-      </c>
-      <c r="U78" s="19">
-        <v>4017.7526382967721</v>
-      </c>
-      <c r="V78" s="19">
-        <v>3989.7399885775626</v>
-      </c>
-      <c r="W78" s="19">
-        <v>3961.7249402736543</v>
-      </c>
-      <c r="X78" s="19">
-        <v>3933.7104772183488</v>
-      </c>
-      <c r="Y78" s="19">
-        <v>3905.6966508737169</v>
-      </c>
-      <c r="Z78" s="19">
-        <v>3877.6789330066481</v>
-      </c>
-      <c r="AA78" s="19">
-        <v>3849.6641876106451</v>
-      </c>
-      <c r="AB78" s="19">
-        <v>3821.6493188199893</v>
-      </c>
-      <c r="AC78" s="19">
-        <v>3793.6352124558844</v>
-      </c>
-      <c r="AD78" s="19">
-        <v>3765.6236041294887</v>
-      </c>
-      <c r="AE78" s="19">
-        <v>3737.6084841509801</v>
-      </c>
-      <c r="AF78" s="19">
-        <v>3709.5933146942721</v>
-      </c>
-      <c r="AG78" s="19">
-        <v>3681.5768114034067</v>
-      </c>
-      <c r="AH78" s="19">
-        <v>3653.5622867226039</v>
-      </c>
-      <c r="AI78" s="19">
-        <v>3625.5477288005723</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35">
-      <c r="A79" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="E79" s="19">
-        <v>5580</v>
-      </c>
-      <c r="F79" s="19">
-        <v>5563</v>
-      </c>
-      <c r="G79" s="19">
-        <v>5546</v>
-      </c>
-      <c r="H79" s="19">
-        <v>5529</v>
-      </c>
-      <c r="I79" s="19">
-        <v>5512</v>
-      </c>
-      <c r="J79" s="19">
-        <v>5495</v>
-      </c>
-      <c r="K79" s="19">
-        <v>5478</v>
-      </c>
-      <c r="L79" s="19">
-        <v>5461</v>
-      </c>
-      <c r="M79" s="19">
-        <v>5444</v>
-      </c>
-      <c r="N79" s="19">
-        <v>5427</v>
-      </c>
-      <c r="O79" s="19">
-        <v>5410</v>
-      </c>
-      <c r="P79" s="19">
-        <v>5394.5</v>
-      </c>
-      <c r="Q79" s="19">
-        <v>5379</v>
-      </c>
-      <c r="R79" s="19">
-        <v>5363.5</v>
-      </c>
-      <c r="S79" s="19">
-        <v>5348</v>
-      </c>
-      <c r="T79" s="19">
-        <v>5332.5</v>
-      </c>
-      <c r="U79" s="19">
-        <v>5317</v>
-      </c>
-      <c r="V79" s="19">
-        <v>5301.5</v>
-      </c>
-      <c r="W79" s="19">
-        <v>5286</v>
-      </c>
-      <c r="X79" s="19">
-        <v>5270.5</v>
-      </c>
-      <c r="Y79" s="19">
-        <v>5255</v>
-      </c>
-      <c r="Z79" s="19">
-        <v>5239.5</v>
-      </c>
-      <c r="AA79" s="19">
-        <v>5224</v>
-      </c>
-      <c r="AB79" s="19">
-        <v>5208.5</v>
-      </c>
-      <c r="AC79" s="19">
-        <v>5193</v>
-      </c>
-      <c r="AD79" s="19">
-        <v>5177.5</v>
-      </c>
-      <c r="AE79" s="19">
-        <v>5162</v>
-      </c>
-      <c r="AF79" s="19">
-        <v>5146.5</v>
-      </c>
-      <c r="AG79" s="19">
-        <v>5131</v>
-      </c>
-      <c r="AH79" s="19">
-        <v>5115.5</v>
-      </c>
-      <c r="AI79" s="19">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35">
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
-      <c r="Z80" s="16"/>
-      <c r="AA80" s="16"/>
-      <c r="AB80" s="16"/>
-      <c r="AC80" s="16"/>
-      <c r="AD80" s="16"/>
-      <c r="AE80" s="16"/>
-      <c r="AF80" s="16"/>
-      <c r="AG80" s="16"/>
-      <c r="AH80" s="16"/>
-      <c r="AI80" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="16"/>
+      <c r="AG74" s="16"/>
+      <c r="AH74" s="16"/>
+      <c r="AI74" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25736,11 +24806,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD5D24F-D6D8-45F0-9B18-7F7BBE5186DB}">
-  <dimension ref="A1:AI104"/>
+  <dimension ref="A1:AI98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105:XFD105"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -35388,13 +34458,13 @@
         <v>85</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>376</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E91" s="19">
         <v>0</v>
@@ -35501,7 +34571,7 @@
         <v>376</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E92" s="19">
         <v>0</v>
@@ -35608,7 +34678,7 @@
         <v>376</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E93" s="19">
         <v>0</v>
@@ -35715,7 +34785,7 @@
         <v>376</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E94" s="19">
         <v>0</v>
@@ -35822,7 +34892,7 @@
         <v>376</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E95" s="19">
         <v>0</v>
@@ -35929,7 +34999,7 @@
         <v>376</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E96" s="19">
         <v>0</v>
@@ -36030,106 +35100,106 @@
         <v>85</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>376</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="F97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="G97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="H97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="I97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="J97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="K97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="L97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="M97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="N97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="O97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="P97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="Q97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="R97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="S97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="T97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="U97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="V97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="W97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="X97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="Y97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="Z97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AA97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AB97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AC97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AD97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AE97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AF97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AG97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AH97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
       <c r="AI97" s="19">
-        <v>0</v>
+        <v>150.85</v>
       </c>
     </row>
     <row r="98" spans="1:35">
@@ -36137,747 +35207,105 @@
         <v>85</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>376</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="F98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="H98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="K98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="L98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="M98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="N98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="O98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="P98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="Q98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="S98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="T98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="U98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="V98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="W98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="X98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="Y98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="Z98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AA98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AB98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AC98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AD98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AE98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AF98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AG98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AH98" s="19">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AI98" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:35">
-      <c r="A99" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E99" s="19">
-        <v>0</v>
-      </c>
-      <c r="F99" s="19">
-        <v>0</v>
-      </c>
-      <c r="G99" s="19">
-        <v>0</v>
-      </c>
-      <c r="H99" s="19">
-        <v>0</v>
-      </c>
-      <c r="I99" s="19">
-        <v>0</v>
-      </c>
-      <c r="J99" s="19">
-        <v>0</v>
-      </c>
-      <c r="K99" s="19">
-        <v>0</v>
-      </c>
-      <c r="L99" s="19">
-        <v>0</v>
-      </c>
-      <c r="M99" s="19">
-        <v>0</v>
-      </c>
-      <c r="N99" s="19">
-        <v>0</v>
-      </c>
-      <c r="O99" s="19">
-        <v>0</v>
-      </c>
-      <c r="P99" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="19">
-        <v>0</v>
-      </c>
-      <c r="R99" s="19">
-        <v>0</v>
-      </c>
-      <c r="S99" s="19">
-        <v>0</v>
-      </c>
-      <c r="T99" s="19">
-        <v>0</v>
-      </c>
-      <c r="U99" s="19">
-        <v>0</v>
-      </c>
-      <c r="V99" s="19">
-        <v>0</v>
-      </c>
-      <c r="W99" s="19">
-        <v>0</v>
-      </c>
-      <c r="X99" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH99" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:35">
-      <c r="A100" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E100" s="19">
-        <v>0</v>
-      </c>
-      <c r="F100" s="19">
-        <v>0</v>
-      </c>
-      <c r="G100" s="19">
-        <v>0</v>
-      </c>
-      <c r="H100" s="19">
-        <v>0</v>
-      </c>
-      <c r="I100" s="19">
-        <v>0</v>
-      </c>
-      <c r="J100" s="19">
-        <v>0</v>
-      </c>
-      <c r="K100" s="19">
-        <v>0</v>
-      </c>
-      <c r="L100" s="19">
-        <v>0</v>
-      </c>
-      <c r="M100" s="19">
-        <v>0</v>
-      </c>
-      <c r="N100" s="19">
-        <v>0</v>
-      </c>
-      <c r="O100" s="19">
-        <v>0</v>
-      </c>
-      <c r="P100" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="19">
-        <v>0</v>
-      </c>
-      <c r="R100" s="19">
-        <v>0</v>
-      </c>
-      <c r="S100" s="19">
-        <v>0</v>
-      </c>
-      <c r="T100" s="19">
-        <v>0</v>
-      </c>
-      <c r="U100" s="19">
-        <v>0</v>
-      </c>
-      <c r="V100" s="19">
-        <v>0</v>
-      </c>
-      <c r="W100" s="19">
-        <v>0</v>
-      </c>
-      <c r="X100" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:35">
-      <c r="A101" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E101" s="19">
-        <v>0</v>
-      </c>
-      <c r="F101" s="19">
-        <v>0</v>
-      </c>
-      <c r="G101" s="19">
-        <v>0</v>
-      </c>
-      <c r="H101" s="19">
-        <v>0</v>
-      </c>
-      <c r="I101" s="19">
-        <v>0</v>
-      </c>
-      <c r="J101" s="19">
-        <v>0</v>
-      </c>
-      <c r="K101" s="19">
-        <v>0</v>
-      </c>
-      <c r="L101" s="19">
-        <v>0</v>
-      </c>
-      <c r="M101" s="19">
-        <v>0</v>
-      </c>
-      <c r="N101" s="19">
-        <v>0</v>
-      </c>
-      <c r="O101" s="19">
-        <v>0</v>
-      </c>
-      <c r="P101" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="19">
-        <v>0</v>
-      </c>
-      <c r="R101" s="19">
-        <v>0</v>
-      </c>
-      <c r="S101" s="19">
-        <v>0</v>
-      </c>
-      <c r="T101" s="19">
-        <v>0</v>
-      </c>
-      <c r="U101" s="19">
-        <v>0</v>
-      </c>
-      <c r="V101" s="19">
-        <v>0</v>
-      </c>
-      <c r="W101" s="19">
-        <v>0</v>
-      </c>
-      <c r="X101" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:35">
-      <c r="A102" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E102" s="19">
-        <v>0</v>
-      </c>
-      <c r="F102" s="19">
-        <v>0</v>
-      </c>
-      <c r="G102" s="19">
-        <v>0</v>
-      </c>
-      <c r="H102" s="19">
-        <v>0</v>
-      </c>
-      <c r="I102" s="19">
-        <v>0</v>
-      </c>
-      <c r="J102" s="19">
-        <v>0</v>
-      </c>
-      <c r="K102" s="19">
-        <v>0</v>
-      </c>
-      <c r="L102" s="19">
-        <v>0</v>
-      </c>
-      <c r="M102" s="19">
-        <v>0</v>
-      </c>
-      <c r="N102" s="19">
-        <v>0</v>
-      </c>
-      <c r="O102" s="19">
-        <v>0</v>
-      </c>
-      <c r="P102" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="19">
-        <v>0</v>
-      </c>
-      <c r="R102" s="19">
-        <v>0</v>
-      </c>
-      <c r="S102" s="19">
-        <v>0</v>
-      </c>
-      <c r="T102" s="19">
-        <v>0</v>
-      </c>
-      <c r="U102" s="19">
-        <v>0</v>
-      </c>
-      <c r="V102" s="19">
-        <v>0</v>
-      </c>
-      <c r="W102" s="19">
-        <v>0</v>
-      </c>
-      <c r="X102" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH102" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI102" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:35">
-      <c r="A103" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="F103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="G103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="H103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="I103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="J103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="K103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="L103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="M103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="N103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="O103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="P103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="Q103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="R103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="S103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="T103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="U103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="V103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="W103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="X103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="Y103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="Z103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AA103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AB103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AC103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AD103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AE103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AF103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AG103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AH103" s="19">
-        <v>150.85</v>
-      </c>
-      <c r="AI103" s="19">
-        <v>150.85</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35">
-      <c r="A104" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="E104" s="19">
-        <v>162</v>
-      </c>
-      <c r="F104" s="19">
-        <v>162</v>
-      </c>
-      <c r="G104" s="19">
-        <v>162</v>
-      </c>
-      <c r="H104" s="19">
-        <v>162</v>
-      </c>
-      <c r="I104" s="19">
-        <v>162</v>
-      </c>
-      <c r="J104" s="19">
-        <v>162</v>
-      </c>
-      <c r="K104" s="19">
-        <v>162</v>
-      </c>
-      <c r="L104" s="19">
-        <v>162</v>
-      </c>
-      <c r="M104" s="19">
-        <v>162</v>
-      </c>
-      <c r="N104" s="19">
-        <v>162</v>
-      </c>
-      <c r="O104" s="19">
-        <v>162</v>
-      </c>
-      <c r="P104" s="19">
-        <v>162</v>
-      </c>
-      <c r="Q104" s="19">
-        <v>162</v>
-      </c>
-      <c r="R104" s="19">
-        <v>162</v>
-      </c>
-      <c r="S104" s="19">
-        <v>162</v>
-      </c>
-      <c r="T104" s="19">
-        <v>162</v>
-      </c>
-      <c r="U104" s="19">
-        <v>162</v>
-      </c>
-      <c r="V104" s="19">
-        <v>162</v>
-      </c>
-      <c r="W104" s="19">
-        <v>162</v>
-      </c>
-      <c r="X104" s="19">
-        <v>162</v>
-      </c>
-      <c r="Y104" s="19">
-        <v>162</v>
-      </c>
-      <c r="Z104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AA104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AB104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AC104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AD104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AE104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AF104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AG104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AH104" s="19">
-        <v>162</v>
-      </c>
-      <c r="AI104" s="19">
         <v>162</v>
       </c>
     </row>
@@ -36890,11 +35318,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F64963-0CDD-4BE6-B0AC-E6FD0D7CCBEC}">
-  <dimension ref="A1:AI106"/>
+  <dimension ref="A1:AI100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -46849,13 +45277,13 @@
         <v>85</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>74</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E93" s="19">
         <v>2.5215836010000001</v>
@@ -46956,13 +45384,13 @@
         <v>85</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>74</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E94" s="19">
         <v>16.600000000000001</v>
@@ -47063,13 +45491,13 @@
         <v>85</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E95" s="19">
         <v>1.212541E-2</v>
@@ -47170,106 +45598,106 @@
         <v>85</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E96" s="19">
-        <v>0</v>
+        <v>3.2244069565170257</v>
       </c>
       <c r="F96" s="19">
-        <v>0</v>
+        <v>6.0900960064023</v>
       </c>
       <c r="G96" s="19">
-        <v>0</v>
+        <v>4.7791637293106994</v>
       </c>
       <c r="H96" s="19">
-        <v>0</v>
+        <v>4.490761033878</v>
       </c>
       <c r="I96" s="19">
-        <v>0</v>
+        <v>4.1782207695651001</v>
       </c>
       <c r="J96" s="19">
-        <v>0</v>
+        <v>3.9820130788979999</v>
       </c>
       <c r="K96" s="19">
-        <v>0</v>
+        <v>3.9629123468843996</v>
       </c>
       <c r="L96" s="19">
-        <v>0</v>
+        <v>4.0580351317724999</v>
       </c>
       <c r="M96" s="19">
-        <v>0</v>
+        <v>4.2041540435871001</v>
       </c>
       <c r="N96" s="19">
-        <v>0</v>
+        <v>4.2404110395906001</v>
       </c>
       <c r="O96" s="19">
-        <v>0</v>
+        <v>4.3184566896812999</v>
       </c>
       <c r="P96" s="19">
-        <v>0</v>
+        <v>4.3831727635314</v>
       </c>
       <c r="Q96" s="19">
-        <v>0</v>
+        <v>4.4090648903733003</v>
       </c>
       <c r="R96" s="19">
-        <v>0</v>
+        <v>4.4618176853732994</v>
       </c>
       <c r="S96" s="19">
-        <v>0</v>
+        <v>4.4033654784014997</v>
       </c>
       <c r="T96" s="19">
-        <v>0</v>
+        <v>4.3898871392789998</v>
       </c>
       <c r="U96" s="19">
-        <v>0</v>
+        <v>4.3657611760136996</v>
       </c>
       <c r="V96" s="19">
-        <v>0</v>
+        <v>4.3862830683245999</v>
       </c>
       <c r="W96" s="19">
-        <v>0</v>
+        <v>4.4146197596867998</v>
       </c>
       <c r="X96" s="19">
-        <v>0</v>
+        <v>4.4218679937197995</v>
       </c>
       <c r="Y96" s="19">
-        <v>0</v>
+        <v>4.4696493653190004</v>
       </c>
       <c r="Z96" s="19">
-        <v>0</v>
+        <v>4.5018380657720991</v>
       </c>
       <c r="AA96" s="19">
-        <v>0</v>
+        <v>4.4802611175611995</v>
       </c>
       <c r="AB96" s="19">
-        <v>0</v>
+        <v>4.4723661342614989</v>
       </c>
       <c r="AC96" s="19">
-        <v>0</v>
+        <v>4.411853403117</v>
       </c>
       <c r="AD96" s="19">
-        <v>0</v>
+        <v>4.3960792623560998</v>
       </c>
       <c r="AE96" s="19">
-        <v>0</v>
+        <v>4.4038919512955994</v>
       </c>
       <c r="AF96" s="19">
-        <v>0</v>
+        <v>4.3949070952511997</v>
       </c>
       <c r="AG96" s="19">
-        <v>0</v>
+        <v>4.4007848116700998</v>
       </c>
       <c r="AH96" s="19">
-        <v>0</v>
+        <v>4.3985196066528003</v>
       </c>
       <c r="AI96" s="19">
-        <v>0</v>
+        <v>4.4014041294833994</v>
       </c>
     </row>
     <row r="97" spans="1:35">
@@ -47277,106 +45705,106 @@
         <v>85</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E97" s="19">
-        <v>0</v>
+        <v>2.8017716311953</v>
       </c>
       <c r="F97" s="19">
-        <v>0</v>
+        <v>2.7442689745335</v>
       </c>
       <c r="G97" s="19">
-        <v>0</v>
+        <v>2.6574389290193996</v>
       </c>
       <c r="H97" s="19">
-        <v>0</v>
+        <v>2.5635410640312002</v>
       </c>
       <c r="I97" s="19">
-        <v>0</v>
+        <v>2.5477363266492001</v>
       </c>
       <c r="J97" s="19">
-        <v>0</v>
+        <v>2.4724517578487997</v>
       </c>
       <c r="K97" s="19">
-        <v>0</v>
+        <v>2.4369702279317997</v>
       </c>
       <c r="L97" s="19">
-        <v>0</v>
+        <v>2.4346332791132999</v>
       </c>
       <c r="M97" s="19">
-        <v>0</v>
+        <v>2.4546392490890998</v>
       </c>
       <c r="N97" s="19">
-        <v>0</v>
+        <v>2.4581726312981997</v>
       </c>
       <c r="O97" s="19">
-        <v>0</v>
+        <v>2.4635017186490997</v>
       </c>
       <c r="P97" s="19">
-        <v>0</v>
+        <v>2.4690492025712998</v>
       </c>
       <c r="Q97" s="19">
-        <v>0</v>
+        <v>2.4743709045308999</v>
       </c>
       <c r="R97" s="19">
-        <v>0</v>
+        <v>2.4871022640761997</v>
       </c>
       <c r="S97" s="19">
-        <v>0</v>
+        <v>2.4781279585907998</v>
       </c>
       <c r="T97" s="19">
-        <v>0</v>
+        <v>2.4649471452320997</v>
       </c>
       <c r="U97" s="19">
-        <v>0</v>
+        <v>2.4597889769369998</v>
       </c>
       <c r="V97" s="19">
-        <v>0</v>
+        <v>2.4560361431006998</v>
       </c>
       <c r="W97" s="19">
-        <v>0</v>
+        <v>2.4575374876463996</v>
       </c>
       <c r="X97" s="19">
-        <v>0</v>
+        <v>2.4660465134798999</v>
       </c>
       <c r="Y97" s="19">
-        <v>0</v>
+        <v>2.4677493737025</v>
       </c>
       <c r="Z97" s="19">
-        <v>0</v>
+        <v>2.4587972243910001</v>
       </c>
       <c r="AA97" s="19">
-        <v>0</v>
+        <v>2.4529585450403997</v>
       </c>
       <c r="AB97" s="19">
-        <v>0</v>
+        <v>2.4533573561705997</v>
       </c>
       <c r="AC97" s="19">
-        <v>0</v>
+        <v>2.4568284900816</v>
       </c>
       <c r="AD97" s="19">
-        <v>0</v>
+        <v>2.4571513371870002</v>
       </c>
       <c r="AE97" s="19">
-        <v>0</v>
+        <v>2.4513727960226999</v>
       </c>
       <c r="AF97" s="19">
-        <v>0</v>
+        <v>2.4458590738892996</v>
       </c>
       <c r="AG97" s="19">
-        <v>0</v>
+        <v>2.4509170118738997</v>
       </c>
       <c r="AH97" s="19">
-        <v>0</v>
+        <v>2.4484481810678997</v>
       </c>
       <c r="AI97" s="19">
-        <v>0</v>
+        <v>2.5427170754543411</v>
       </c>
     </row>
     <row r="98" spans="1:35">
@@ -47384,106 +45812,106 @@
         <v>85</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E98" s="19">
-        <v>0</v>
+        <v>11.257446453</v>
       </c>
       <c r="F98" s="19">
-        <v>0</v>
+        <v>16.353366449999999</v>
       </c>
       <c r="G98" s="19">
-        <v>0</v>
+        <v>19.860568501997399</v>
       </c>
       <c r="H98" s="19">
-        <v>0</v>
+        <v>17.503552520279399</v>
       </c>
       <c r="I98" s="19">
-        <v>0</v>
+        <v>17.881655013274198</v>
       </c>
       <c r="J98" s="19">
-        <v>0</v>
+        <v>16.781861577946501</v>
       </c>
       <c r="K98" s="19">
-        <v>0</v>
+        <v>16.985345989155899</v>
       </c>
       <c r="L98" s="19">
-        <v>0</v>
+        <v>17.2106436810978</v>
       </c>
       <c r="M98" s="19">
-        <v>0</v>
+        <v>17.401145629457702</v>
       </c>
       <c r="N98" s="19">
-        <v>0</v>
+        <v>17.899107747972</v>
       </c>
       <c r="O98" s="19">
-        <v>0</v>
+        <v>18.413893787867696</v>
       </c>
       <c r="P98" s="19">
-        <v>0</v>
+        <v>18.9847032960534</v>
       </c>
       <c r="Q98" s="19">
-        <v>0</v>
+        <v>19.559022975218397</v>
       </c>
       <c r="R98" s="19">
-        <v>0</v>
+        <v>20.152217604434398</v>
       </c>
       <c r="S98" s="19">
-        <v>0</v>
+        <v>20.781333721877697</v>
       </c>
       <c r="T98" s="19">
-        <v>0</v>
+        <v>21.432694637916601</v>
       </c>
       <c r="U98" s="19">
-        <v>0</v>
+        <v>22.059934865969698</v>
       </c>
       <c r="V98" s="19">
-        <v>0</v>
+        <v>22.704356679354301</v>
       </c>
       <c r="W98" s="19">
-        <v>0</v>
+        <v>23.369852179285502</v>
       </c>
       <c r="X98" s="19">
-        <v>0</v>
+        <v>23.986282304587199</v>
       </c>
       <c r="Y98" s="19">
-        <v>0</v>
+        <v>24.657770522030397</v>
       </c>
       <c r="Z98" s="19">
-        <v>0</v>
+        <v>25.418146143992701</v>
       </c>
       <c r="AA98" s="19">
-        <v>0</v>
+        <v>26.019705256383897</v>
       </c>
       <c r="AB98" s="19">
-        <v>0</v>
+        <v>26.735677795738798</v>
       </c>
       <c r="AC98" s="19">
-        <v>0</v>
+        <v>27.436872167102397</v>
       </c>
       <c r="AD98" s="19">
-        <v>0</v>
+        <v>28.181047405720197</v>
       </c>
       <c r="AE98" s="19">
-        <v>0</v>
+        <v>29.1382194395418</v>
       </c>
       <c r="AF98" s="19">
-        <v>0</v>
+        <v>29.832198283605297</v>
       </c>
       <c r="AG98" s="19">
-        <v>0</v>
+        <v>30.781924787940596</v>
       </c>
       <c r="AH98" s="19">
-        <v>0</v>
+        <v>31.701098983523696</v>
       </c>
       <c r="AI98" s="19">
-        <v>0</v>
+        <v>32.6069014006302</v>
       </c>
     </row>
     <row r="99" spans="1:35">
@@ -47491,106 +45919,106 @@
         <v>85</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E99" s="19">
-        <v>0</v>
+        <v>0.75792133088165781</v>
       </c>
       <c r="F99" s="19">
-        <v>0</v>
+        <v>0.75612058151759987</v>
       </c>
       <c r="G99" s="19">
-        <v>0</v>
+        <v>0.75722733515670004</v>
       </c>
       <c r="H99" s="19">
-        <v>0</v>
+        <v>0.75944189749079993</v>
       </c>
       <c r="I99" s="19">
-        <v>0</v>
+        <v>0.76054865112989989</v>
       </c>
       <c r="J99" s="19">
-        <v>0</v>
+        <v>0.76276215840810002</v>
       </c>
       <c r="K99" s="19">
-        <v>0</v>
+        <v>0.76386996710309996</v>
       </c>
       <c r="L99" s="19">
-        <v>0</v>
+        <v>0.76608347438129987</v>
       </c>
       <c r="M99" s="19">
-        <v>0</v>
+        <v>0.76719022802039993</v>
       </c>
       <c r="N99" s="19">
-        <v>0</v>
+        <v>0.76940479035449993</v>
       </c>
       <c r="O99" s="19">
-        <v>0</v>
+        <v>0.77161935268859994</v>
       </c>
       <c r="P99" s="19">
-        <v>0</v>
+        <v>0.7727261063277</v>
       </c>
       <c r="Q99" s="19">
-        <v>0</v>
+        <v>0.77494066866179989</v>
       </c>
       <c r="R99" s="19">
-        <v>0</v>
+        <v>0.77715417594000002</v>
       </c>
       <c r="S99" s="19">
-        <v>0</v>
+        <v>0.77826092957909998</v>
       </c>
       <c r="T99" s="19">
-        <v>0</v>
+        <v>0.78047549191319987</v>
       </c>
       <c r="U99" s="19">
-        <v>0</v>
+        <v>0.78269005424729998</v>
       </c>
       <c r="V99" s="19">
-        <v>0</v>
+        <v>0.78379680788639994</v>
       </c>
       <c r="W99" s="19">
-        <v>0</v>
+        <v>0.78601031516459996</v>
       </c>
       <c r="X99" s="19">
-        <v>0</v>
+        <v>0.78822487749869996</v>
       </c>
       <c r="Y99" s="19">
-        <v>0</v>
+        <v>0.79043943983279996</v>
       </c>
       <c r="Z99" s="19">
-        <v>0</v>
+        <v>0.79265294711099998</v>
       </c>
       <c r="AA99" s="19">
-        <v>0</v>
+        <v>0.79486750944509987</v>
       </c>
       <c r="AB99" s="19">
-        <v>0</v>
+        <v>0.79708101672330001</v>
       </c>
       <c r="AC99" s="19">
-        <v>0</v>
+        <v>0.7992955790573999</v>
       </c>
       <c r="AD99" s="19">
-        <v>0</v>
+        <v>0.80151014139150001</v>
       </c>
       <c r="AE99" s="19">
-        <v>0</v>
+        <v>0.80372364866969992</v>
       </c>
       <c r="AF99" s="19">
-        <v>0</v>
+        <v>0.80593821100379992</v>
       </c>
       <c r="AG99" s="19">
-        <v>0</v>
+        <v>0.80815171828199994</v>
       </c>
       <c r="AH99" s="19">
-        <v>0</v>
+        <v>0.81036628061609994</v>
       </c>
       <c r="AI99" s="19">
-        <v>0</v>
+        <v>0.81257978789429997</v>
       </c>
     </row>
     <row r="100" spans="1:35">
@@ -47598,747 +46026,105 @@
         <v>85</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>400</v>
       </c>
       <c r="E100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="F100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="G100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="H100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="I100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="J100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="K100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="L100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="M100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="N100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="O100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="P100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="Q100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="R100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="S100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="T100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="U100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="V100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="W100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="X100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="Y100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="Z100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AA100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AB100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AC100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AD100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AE100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AF100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AG100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AH100" s="19">
-        <v>0</v>
+        <v>2.5215836010000001</v>
       </c>
       <c r="AI100" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:35">
-      <c r="A101" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E101" s="19">
-        <v>0</v>
-      </c>
-      <c r="F101" s="19">
-        <v>0</v>
-      </c>
-      <c r="G101" s="19">
-        <v>0</v>
-      </c>
-      <c r="H101" s="19">
-        <v>0</v>
-      </c>
-      <c r="I101" s="19">
-        <v>0</v>
-      </c>
-      <c r="J101" s="19">
-        <v>0</v>
-      </c>
-      <c r="K101" s="19">
-        <v>0</v>
-      </c>
-      <c r="L101" s="19">
-        <v>0</v>
-      </c>
-      <c r="M101" s="19">
-        <v>0</v>
-      </c>
-      <c r="N101" s="19">
-        <v>0</v>
-      </c>
-      <c r="O101" s="19">
-        <v>0</v>
-      </c>
-      <c r="P101" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="19">
-        <v>0</v>
-      </c>
-      <c r="R101" s="19">
-        <v>0</v>
-      </c>
-      <c r="S101" s="19">
-        <v>0</v>
-      </c>
-      <c r="T101" s="19">
-        <v>0</v>
-      </c>
-      <c r="U101" s="19">
-        <v>0</v>
-      </c>
-      <c r="V101" s="19">
-        <v>0</v>
-      </c>
-      <c r="W101" s="19">
-        <v>0</v>
-      </c>
-      <c r="X101" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH101" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:35">
-      <c r="A102" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E102" s="19">
-        <v>3.2244069565170257</v>
-      </c>
-      <c r="F102" s="19">
-        <v>6.0900960064023</v>
-      </c>
-      <c r="G102" s="19">
-        <v>4.7791637293106994</v>
-      </c>
-      <c r="H102" s="19">
-        <v>4.490761033878</v>
-      </c>
-      <c r="I102" s="19">
-        <v>4.1782207695651001</v>
-      </c>
-      <c r="J102" s="19">
-        <v>3.9820130788979999</v>
-      </c>
-      <c r="K102" s="19">
-        <v>3.9629123468843996</v>
-      </c>
-      <c r="L102" s="19">
-        <v>4.0580351317724999</v>
-      </c>
-      <c r="M102" s="19">
-        <v>4.2041540435871001</v>
-      </c>
-      <c r="N102" s="19">
-        <v>4.2404110395906001</v>
-      </c>
-      <c r="O102" s="19">
-        <v>4.3184566896812999</v>
-      </c>
-      <c r="P102" s="19">
-        <v>4.3831727635314</v>
-      </c>
-      <c r="Q102" s="19">
-        <v>4.4090648903733003</v>
-      </c>
-      <c r="R102" s="19">
-        <v>4.4618176853732994</v>
-      </c>
-      <c r="S102" s="19">
-        <v>4.4033654784014997</v>
-      </c>
-      <c r="T102" s="19">
-        <v>4.3898871392789998</v>
-      </c>
-      <c r="U102" s="19">
-        <v>4.3657611760136996</v>
-      </c>
-      <c r="V102" s="19">
-        <v>4.3862830683245999</v>
-      </c>
-      <c r="W102" s="19">
-        <v>4.4146197596867998</v>
-      </c>
-      <c r="X102" s="19">
-        <v>4.4218679937197995</v>
-      </c>
-      <c r="Y102" s="19">
-        <v>4.4696493653190004</v>
-      </c>
-      <c r="Z102" s="19">
-        <v>4.5018380657720991</v>
-      </c>
-      <c r="AA102" s="19">
-        <v>4.4802611175611995</v>
-      </c>
-      <c r="AB102" s="19">
-        <v>4.4723661342614989</v>
-      </c>
-      <c r="AC102" s="19">
-        <v>4.411853403117</v>
-      </c>
-      <c r="AD102" s="19">
-        <v>4.3960792623560998</v>
-      </c>
-      <c r="AE102" s="19">
-        <v>4.4038919512955994</v>
-      </c>
-      <c r="AF102" s="19">
-        <v>4.3949070952511997</v>
-      </c>
-      <c r="AG102" s="19">
-        <v>4.4007848116700998</v>
-      </c>
-      <c r="AH102" s="19">
-        <v>4.3985196066528003</v>
-      </c>
-      <c r="AI102" s="19">
-        <v>4.4014041294833994</v>
-      </c>
-    </row>
-    <row r="103" spans="1:35">
-      <c r="A103" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E103" s="19">
-        <v>2.8017716311953</v>
-      </c>
-      <c r="F103" s="19">
-        <v>2.7442689745335</v>
-      </c>
-      <c r="G103" s="19">
-        <v>2.6574389290193996</v>
-      </c>
-      <c r="H103" s="19">
-        <v>2.5635410640312002</v>
-      </c>
-      <c r="I103" s="19">
-        <v>2.5477363266492001</v>
-      </c>
-      <c r="J103" s="19">
-        <v>2.4724517578487997</v>
-      </c>
-      <c r="K103" s="19">
-        <v>2.4369702279317997</v>
-      </c>
-      <c r="L103" s="19">
-        <v>2.4346332791132999</v>
-      </c>
-      <c r="M103" s="19">
-        <v>2.4546392490890998</v>
-      </c>
-      <c r="N103" s="19">
-        <v>2.4581726312981997</v>
-      </c>
-      <c r="O103" s="19">
-        <v>2.4635017186490997</v>
-      </c>
-      <c r="P103" s="19">
-        <v>2.4690492025712998</v>
-      </c>
-      <c r="Q103" s="19">
-        <v>2.4743709045308999</v>
-      </c>
-      <c r="R103" s="19">
-        <v>2.4871022640761997</v>
-      </c>
-      <c r="S103" s="19">
-        <v>2.4781279585907998</v>
-      </c>
-      <c r="T103" s="19">
-        <v>2.4649471452320997</v>
-      </c>
-      <c r="U103" s="19">
-        <v>2.4597889769369998</v>
-      </c>
-      <c r="V103" s="19">
-        <v>2.4560361431006998</v>
-      </c>
-      <c r="W103" s="19">
-        <v>2.4575374876463996</v>
-      </c>
-      <c r="X103" s="19">
-        <v>2.4660465134798999</v>
-      </c>
-      <c r="Y103" s="19">
-        <v>2.4677493737025</v>
-      </c>
-      <c r="Z103" s="19">
-        <v>2.4587972243910001</v>
-      </c>
-      <c r="AA103" s="19">
-        <v>2.4529585450403997</v>
-      </c>
-      <c r="AB103" s="19">
-        <v>2.4533573561705997</v>
-      </c>
-      <c r="AC103" s="19">
-        <v>2.4568284900816</v>
-      </c>
-      <c r="AD103" s="19">
-        <v>2.4571513371870002</v>
-      </c>
-      <c r="AE103" s="19">
-        <v>2.4513727960226999</v>
-      </c>
-      <c r="AF103" s="19">
-        <v>2.4458590738892996</v>
-      </c>
-      <c r="AG103" s="19">
-        <v>2.4509170118738997</v>
-      </c>
-      <c r="AH103" s="19">
-        <v>2.4484481810678997</v>
-      </c>
-      <c r="AI103" s="19">
-        <v>2.5427170754543411</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35">
-      <c r="A104" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E104" s="19">
-        <v>11.257446453</v>
-      </c>
-      <c r="F104" s="19">
-        <v>16.353366449999999</v>
-      </c>
-      <c r="G104" s="19">
-        <v>19.860568501997399</v>
-      </c>
-      <c r="H104" s="19">
-        <v>17.503552520279399</v>
-      </c>
-      <c r="I104" s="19">
-        <v>17.881655013274198</v>
-      </c>
-      <c r="J104" s="19">
-        <v>16.781861577946501</v>
-      </c>
-      <c r="K104" s="19">
-        <v>16.985345989155899</v>
-      </c>
-      <c r="L104" s="19">
-        <v>17.2106436810978</v>
-      </c>
-      <c r="M104" s="19">
-        <v>17.401145629457702</v>
-      </c>
-      <c r="N104" s="19">
-        <v>17.899107747972</v>
-      </c>
-      <c r="O104" s="19">
-        <v>18.413893787867696</v>
-      </c>
-      <c r="P104" s="19">
-        <v>18.9847032960534</v>
-      </c>
-      <c r="Q104" s="19">
-        <v>19.559022975218397</v>
-      </c>
-      <c r="R104" s="19">
-        <v>20.152217604434398</v>
-      </c>
-      <c r="S104" s="19">
-        <v>20.781333721877697</v>
-      </c>
-      <c r="T104" s="19">
-        <v>21.432694637916601</v>
-      </c>
-      <c r="U104" s="19">
-        <v>22.059934865969698</v>
-      </c>
-      <c r="V104" s="19">
-        <v>22.704356679354301</v>
-      </c>
-      <c r="W104" s="19">
-        <v>23.369852179285502</v>
-      </c>
-      <c r="X104" s="19">
-        <v>23.986282304587199</v>
-      </c>
-      <c r="Y104" s="19">
-        <v>24.657770522030397</v>
-      </c>
-      <c r="Z104" s="19">
-        <v>25.418146143992701</v>
-      </c>
-      <c r="AA104" s="19">
-        <v>26.019705256383897</v>
-      </c>
-      <c r="AB104" s="19">
-        <v>26.735677795738798</v>
-      </c>
-      <c r="AC104" s="19">
-        <v>27.436872167102397</v>
-      </c>
-      <c r="AD104" s="19">
-        <v>28.181047405720197</v>
-      </c>
-      <c r="AE104" s="19">
-        <v>29.1382194395418</v>
-      </c>
-      <c r="AF104" s="19">
-        <v>29.832198283605297</v>
-      </c>
-      <c r="AG104" s="19">
-        <v>30.781924787940596</v>
-      </c>
-      <c r="AH104" s="19">
-        <v>31.701098983523696</v>
-      </c>
-      <c r="AI104" s="19">
-        <v>32.6069014006302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:35">
-      <c r="A105" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="E105" s="19">
-        <v>0.75792133088165781</v>
-      </c>
-      <c r="F105" s="19">
-        <v>0.75612058151759987</v>
-      </c>
-      <c r="G105" s="19">
-        <v>0.75722733515670004</v>
-      </c>
-      <c r="H105" s="19">
-        <v>0.75944189749079993</v>
-      </c>
-      <c r="I105" s="19">
-        <v>0.76054865112989989</v>
-      </c>
-      <c r="J105" s="19">
-        <v>0.76276215840810002</v>
-      </c>
-      <c r="K105" s="19">
-        <v>0.76386996710309996</v>
-      </c>
-      <c r="L105" s="19">
-        <v>0.76608347438129987</v>
-      </c>
-      <c r="M105" s="19">
-        <v>0.76719022802039993</v>
-      </c>
-      <c r="N105" s="19">
-        <v>0.76940479035449993</v>
-      </c>
-      <c r="O105" s="19">
-        <v>0.77161935268859994</v>
-      </c>
-      <c r="P105" s="19">
-        <v>0.7727261063277</v>
-      </c>
-      <c r="Q105" s="19">
-        <v>0.77494066866179989</v>
-      </c>
-      <c r="R105" s="19">
-        <v>0.77715417594000002</v>
-      </c>
-      <c r="S105" s="19">
-        <v>0.77826092957909998</v>
-      </c>
-      <c r="T105" s="19">
-        <v>0.78047549191319987</v>
-      </c>
-      <c r="U105" s="19">
-        <v>0.78269005424729998</v>
-      </c>
-      <c r="V105" s="19">
-        <v>0.78379680788639994</v>
-      </c>
-      <c r="W105" s="19">
-        <v>0.78601031516459996</v>
-      </c>
-      <c r="X105" s="19">
-        <v>0.78822487749869996</v>
-      </c>
-      <c r="Y105" s="19">
-        <v>0.79043943983279996</v>
-      </c>
-      <c r="Z105" s="19">
-        <v>0.79265294711099998</v>
-      </c>
-      <c r="AA105" s="19">
-        <v>0.79486750944509987</v>
-      </c>
-      <c r="AB105" s="19">
-        <v>0.79708101672330001</v>
-      </c>
-      <c r="AC105" s="19">
-        <v>0.7992955790573999</v>
-      </c>
-      <c r="AD105" s="19">
-        <v>0.80151014139150001</v>
-      </c>
-      <c r="AE105" s="19">
-        <v>0.80372364866969992</v>
-      </c>
-      <c r="AF105" s="19">
-        <v>0.80593821100379992</v>
-      </c>
-      <c r="AG105" s="19">
-        <v>0.80815171828199994</v>
-      </c>
-      <c r="AH105" s="19">
-        <v>0.81036628061609994</v>
-      </c>
-      <c r="AI105" s="19">
-        <v>0.81257978789429997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:35">
-      <c r="A106" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="E106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="F106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="G106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="H106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="I106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="J106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="K106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="L106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="M106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="N106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="O106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="P106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="Q106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="R106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="S106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="T106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="U106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="V106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="W106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="X106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="Y106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="Z106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AA106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AB106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AC106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AD106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AE106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AF106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AG106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AH106" s="19">
-        <v>2.5215836010000001</v>
-      </c>
-      <c r="AI106" s="19">
         <v>2.5215836010000001</v>
       </c>
     </row>
